--- a/data/depot/Spending Drivers - Medicaid - Alternative Expenditure Figures.xlsx
+++ b/data/depot/Spending Drivers - Medicaid - Alternative Expenditure Figures.xlsx
@@ -10,9 +10,6 @@
     <sheet name="Medicaid - Total" sheetId="1" r:id="rId1"/>
     <sheet name="Medicaid - Alternative" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -359,12 +356,94 @@
     <t xml:space="preserve">Table 1 - Medicaid Kaiser Family Foundation Total Data </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: The Transfer Income Model Version 3 (TRIM3), using CPS Data. Medicaid administrative data adjusted to match the TRIM3 and CPS eligibility universe. The Kaiser Family Foundation: State Health Facts, Medicaid Spending by Enrollment Groups, FY2011. Medicare and Medicaid Research Review, 2013 Statistical Supplement, Table 13.2 - Medicaid Expenditures, by Provider Type and Area of Residence: Fiscal Year 2011.
-Notes: Population data comes from the TRIM3 model, which is based on the CPS poverty universe that excludes institutionalized populations (i.e. persons residing in institutional group quarters such as adult correctional facilities, juvenile facilities, skilled-nursing facilities, and other institutional facilities). These data are averaged over CY 2010 and 2011 because of sampling error.  Potentially eligible population pulls from the same data and time period as our population estimates. The eligible population comes from the same TRIM3 model estimates, but uses only data from CY 2010. Recipient data comes from medicaid administrative data adjusted to match the TRIM3 and CPS universe. This means that it also excludes institutionalized populations. Recipient data is for CY 2010. Expenditure data is drawn from estimates produced by the Medicaid Statistical Information System (MSIS) jointly run by the Urban Institute and Kaiser Family Foundation. These estimates do include institionalized expenditures, and are for FY 2011. Our alternative expenditure estimate removes Institutional Long-Term Care from the 2013 Statistical Supplement from the KFF expenditure estimates. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: The Transfer Income Model Version 3 (TRIM3), using CPS Data. Medicaid administrative data adjusted to match the TRIM3 and CPS eligibility universe. The Kaiser Family Foundation: State Health Facts, Medicaid Spending by Enrollment Groups, FY2011. Medicaire and Medicaid Research Review, 2013 Statistical Supplement, Table 13.2 - Medicaid Expenditures, by Provider Type and Area of Residence: Fiscal Year 2011.
-Notes: Population data comes from the TRIM3 model, which is based on the CPS poverty universe that excludes institutionalized populations (i.e. persons residing in institutional group quarters such as adult correctional facilities, juvenile facilities, skilled-nursing facilities, and other institutional facilities). These data are averaged over CY 2010 and 2011 because of sampling error.  Potentially eligible population pulls from the same data and time period as our population estimates. The eligible population comes from the same TRIM3 model estimates, but uses only data from CY 2010. Recipient data comes from medicaid administrative data adjusted to match the TRIM3 and CPS universe. This means that it also excludes institutionalized populations. Recipient data is for CY 2010. Expenditure data is drawn from estimates produced by the Medicaid Statistical Information System (MSIS) jointly run by the Urban Institute and Kaiser Family Foundation. These estimates do include institionalized expenditures, and are for FY 2011. Our alternative expenditure estimate removes Institutional Long-Term Care from the 2013 Statistical Supplement from the KFF expenditure estimates. </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The Transfer Income Model Version 3 (TRIM3), using CPS Data. Medicaid administrative data adjusted to match the TRIM3 and CPS eligibility universe. The Kaiser Family Foundation: State Health Facts, Medicaid Spending by Enrollment Groups, FY2011. Medicare and Medicaid Research Review, 2013 Statistical Supplement, Table 13.2 - Medicaid Expenditures, by Provider Type and Area of Residence: Fiscal Year 2011.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Population data comes from the TRIM3 model, which is based on the CPS poverty universe that excludes institutionalized populations (i.e. persons residing in institutional group quarters such as adult correctional facilities, juvenile facilities, skilled-nursing facilities, and other institutional facilities). These data are averaged over CY 2010 and 2011 because of sampling error.  Potentially eligible population pulls from the same data and time period as our population estimates. The eligible population comes from the same TRIM3 model estimates, but uses only data from CY 2010. Recipient data comes from medicaid administrative data adjusted to match the TRIM3 and CPS universe. This means that it also excludes institutionalized populations. Recipient data is for CY 2010. Expenditure data is drawn from estimates produced by the Medicaid Statistical Information System (MSIS) jointly run by the Urban Institute and Kaiser Family Foundation. These estimates do include institionalized expenditures, and are for FY 2011. Our alternative expenditure estimate removes Institutional Long-Term Care from the 2013 Statistical Supplement from the KFF expenditure estimates. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The Transfer Income Model Version 3 (TRIM3), using CPS Data. Medicaid administrative data adjusted to match the TRIM3 and CPS eligibility universe. The Kaiser Family Foundation: State Health Facts, Medicaid Spending by Enrollment Groups, FY2011. Medicaire and Medicaid Research Review, 2013 Statistical Supplement, Table 13.2 - Medicaid Expenditures, by Provider Type and Area of Residence: Fiscal Year 2011.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Population data comes from the TRIM3 model, which is based on the CPS poverty universe that excludes institutionalized populations (i.e. persons residing in institutional group quarters such as adult correctional facilities, juvenile facilities, skilled-nursing facilities, and other institutional facilities). These data are averaged over CY 2010 and 2011 because of sampling error.  Potentially eligible population pulls from the same data and time period as our population estimates. The eligible population comes from the same TRIM3 model estimates, but uses only data from CY 2010. Recipient data comes from medicaid administrative data adjusted to match the TRIM3 and CPS universe. This means that it also excludes institutionalized populations. Recipient data is for CY 2010. Expenditure data is drawn from estimates produced by the Medicaid Statistical Information System (MSIS) jointly run by the Urban Institute and Kaiser Family Foundation. These estimates do include institionalized expenditures, and are for FY 2011. Our alternative expenditure estimate removes Institutional Long-Term Care from the 2013 Statistical Supplement from the KFF expenditure estimates. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -614,1809 +693,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data - Total (old)"/>
-      <sheetName val="Data - V1"/>
-      <sheetName val="Ratios - V1"/>
-      <sheetName val="Data - V2"/>
-      <sheetName val="Ratios - V2"/>
-      <sheetName val="Data - V3"/>
-      <sheetName val="Ratios - V3"/>
-      <sheetName val="Expend - MMSS"/>
-      <sheetName val="Ratios - All"/>
-      <sheetName val="Rankings - All"/>
-      <sheetName val="Expenditure Difference"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="C2">
-            <v>307468461.4375</v>
-          </cell>
-          <cell r="D2">
-            <v>175385922.9025884</v>
-          </cell>
-          <cell r="E2">
-            <v>63881760</v>
-          </cell>
-          <cell r="F2">
-            <v>50148749</v>
-          </cell>
-          <cell r="G2">
-            <v>397635211448</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>4718503.5</v>
-          </cell>
-          <cell r="D3">
-            <v>2533870.9437217722</v>
-          </cell>
-          <cell r="E3">
-            <v>710762</v>
-          </cell>
-          <cell r="F3">
-            <v>727712</v>
-          </cell>
-          <cell r="G3">
-            <v>4367220023</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>703106.375</v>
-          </cell>
-          <cell r="D4">
-            <v>446701.34039276832</v>
-          </cell>
-          <cell r="E4">
-            <v>134345</v>
-          </cell>
-          <cell r="F4">
-            <v>110132</v>
-          </cell>
-          <cell r="G4">
-            <v>1313397628</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>6632165</v>
-          </cell>
-          <cell r="D5">
-            <v>3517099.7731132526</v>
-          </cell>
-          <cell r="E5">
-            <v>1665493</v>
-          </cell>
-          <cell r="F5">
-            <v>1149975</v>
-          </cell>
-          <cell r="G5">
-            <v>8878439551</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>2894530.25</v>
-          </cell>
-          <cell r="D6">
-            <v>1411911.253579139</v>
-          </cell>
-          <cell r="E6">
-            <v>677564</v>
-          </cell>
-          <cell r="F6">
-            <v>510363</v>
-          </cell>
-          <cell r="G6">
-            <v>3778910047</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>37428844</v>
-          </cell>
-          <cell r="D7">
-            <v>20075759.894365348</v>
-          </cell>
-          <cell r="E7">
-            <v>9121390</v>
-          </cell>
-          <cell r="F7">
-            <v>7178279</v>
-          </cell>
-          <cell r="G7">
-            <v>52128660506</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>5038697.5</v>
-          </cell>
-          <cell r="D8">
-            <v>3274164.3195550493</v>
-          </cell>
-          <cell r="E8">
-            <v>623907</v>
-          </cell>
-          <cell r="F8">
-            <v>504155</v>
-          </cell>
-          <cell r="G8">
-            <v>4231188552</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>3507134.25</v>
-          </cell>
-          <cell r="D9">
-            <v>2466601.6219564704</v>
-          </cell>
-          <cell r="E9">
-            <v>714924</v>
-          </cell>
-          <cell r="F9">
-            <v>538438</v>
-          </cell>
-          <cell r="G9">
-            <v>5867898663</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>891979.4375</v>
-          </cell>
-          <cell r="D10">
-            <v>543190.43085098267</v>
-          </cell>
-          <cell r="E10">
-            <v>155640</v>
-          </cell>
-          <cell r="F10">
-            <v>161973</v>
-          </cell>
-          <cell r="G10">
-            <v>1442996281</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>613821.5</v>
-          </cell>
-          <cell r="D11">
-            <v>359409.68931454385</v>
-          </cell>
-          <cell r="E11">
-            <v>202541</v>
-          </cell>
-          <cell r="F11">
-            <v>159737</v>
-          </cell>
-          <cell r="G11">
-            <v>2073262706</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>18771256</v>
-          </cell>
-          <cell r="D12">
-            <v>10337392.151321409</v>
-          </cell>
-          <cell r="E12">
-            <v>3261098</v>
-          </cell>
-          <cell r="F12">
-            <v>2792302</v>
-          </cell>
-          <cell r="G12">
-            <v>17257433069</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>9757314</v>
-          </cell>
-          <cell r="D13">
-            <v>5151394.4813075075</v>
-          </cell>
-          <cell r="E13">
-            <v>1889672</v>
-          </cell>
-          <cell r="F13">
-            <v>1495836</v>
-          </cell>
-          <cell r="G13">
-            <v>7703280165</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>1298291.25</v>
-          </cell>
-          <cell r="D14">
-            <v>788617.19088041841</v>
-          </cell>
-          <cell r="E14">
-            <v>326723</v>
-          </cell>
-          <cell r="F14">
-            <v>244117</v>
-          </cell>
-          <cell r="G14">
-            <v>1544832752</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>1552785.125</v>
-          </cell>
-          <cell r="D15">
-            <v>775891.04042911518</v>
-          </cell>
-          <cell r="E15">
-            <v>239475</v>
-          </cell>
-          <cell r="F15">
-            <v>181129</v>
-          </cell>
-          <cell r="G15">
-            <v>1550009910</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>12805608</v>
-          </cell>
-          <cell r="D16">
-            <v>7362620.979228016</v>
-          </cell>
-          <cell r="E16">
-            <v>2884845</v>
-          </cell>
-          <cell r="F16">
-            <v>2471471</v>
-          </cell>
-          <cell r="G16">
-            <v>13108300549</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>6356050.5</v>
-          </cell>
-          <cell r="D17">
-            <v>3543807.136253831</v>
-          </cell>
-          <cell r="E17">
-            <v>1035684</v>
-          </cell>
-          <cell r="F17">
-            <v>942361</v>
-          </cell>
-          <cell r="G17">
-            <v>6473460496</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>2997905</v>
-          </cell>
-          <cell r="D18">
-            <v>1834077.71282458</v>
-          </cell>
-          <cell r="E18">
-            <v>570619</v>
-          </cell>
-          <cell r="F18">
-            <v>434825</v>
-          </cell>
-          <cell r="G18">
-            <v>3285706204</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>2785742.25</v>
-          </cell>
-          <cell r="D19">
-            <v>1570344.8751740453</v>
-          </cell>
-          <cell r="E19">
-            <v>541866</v>
-          </cell>
-          <cell r="F19">
-            <v>320310</v>
-          </cell>
-          <cell r="G19">
-            <v>2620639625</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>4301251</v>
-          </cell>
-          <cell r="D20">
-            <v>2176437.2411308265</v>
-          </cell>
-          <cell r="E20">
-            <v>913888</v>
-          </cell>
-          <cell r="F20">
-            <v>723846</v>
-          </cell>
-          <cell r="G20">
-            <v>5623093689</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>4468767</v>
-          </cell>
-          <cell r="D21">
-            <v>2249887.944792273</v>
-          </cell>
-          <cell r="E21">
-            <v>1166021</v>
-          </cell>
-          <cell r="F21">
-            <v>980581</v>
-          </cell>
-          <cell r="G21">
-            <v>6258944289</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>1307175</v>
-          </cell>
-          <cell r="D22">
-            <v>776243.51776218391</v>
-          </cell>
-          <cell r="E22">
-            <v>362063</v>
-          </cell>
-          <cell r="F22">
-            <v>270558</v>
-          </cell>
-          <cell r="G22">
-            <v>2234377802</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>5769205</v>
-          </cell>
-          <cell r="D23">
-            <v>3973154.1688084607</v>
-          </cell>
-          <cell r="E23">
-            <v>928906</v>
-          </cell>
-          <cell r="F23">
-            <v>763998</v>
-          </cell>
-          <cell r="G23">
-            <v>7399661449</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>6569638.5</v>
-          </cell>
-          <cell r="D24">
-            <v>4443357.6373343449</v>
-          </cell>
-          <cell r="E24">
-            <v>1622820</v>
-          </cell>
-          <cell r="F24">
-            <v>1046563</v>
-          </cell>
-          <cell r="G24">
-            <v>13152502102</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>9737212</v>
-          </cell>
-          <cell r="D25">
-            <v>5639716.8463373221</v>
-          </cell>
-          <cell r="E25">
-            <v>1997339</v>
-          </cell>
-          <cell r="F25">
-            <v>1724772</v>
-          </cell>
-          <cell r="G25">
-            <v>11895180142</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>5235715.5</v>
-          </cell>
-          <cell r="D26">
-            <v>3462750.0085201222</v>
-          </cell>
-          <cell r="E26">
-            <v>1395952</v>
-          </cell>
-          <cell r="F26">
-            <v>666928</v>
-          </cell>
-          <cell r="G26">
-            <v>8286986422</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>2931505.75</v>
-          </cell>
-          <cell r="D27">
-            <v>1441896.1287727361</v>
-          </cell>
-          <cell r="E27">
-            <v>662450</v>
-          </cell>
-          <cell r="F27">
-            <v>556334</v>
-          </cell>
-          <cell r="G27">
-            <v>4169864488</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>5938243</v>
-          </cell>
-          <cell r="D28">
-            <v>3462866.6262707692</v>
-          </cell>
-          <cell r="E28">
-            <v>974810</v>
-          </cell>
-          <cell r="F28">
-            <v>843371</v>
-          </cell>
-          <cell r="G28">
-            <v>7453930327</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>978695.25</v>
-          </cell>
-          <cell r="D29">
-            <v>501078.13454055809</v>
-          </cell>
-          <cell r="E29">
-            <v>214967</v>
-          </cell>
-          <cell r="F29">
-            <v>99572</v>
-          </cell>
-          <cell r="G29">
-            <v>949083689</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>1806568.625</v>
-          </cell>
-          <cell r="D30">
-            <v>1115204.4802653787</v>
-          </cell>
-          <cell r="E30">
-            <v>317231</v>
-          </cell>
-          <cell r="F30">
-            <v>215718</v>
-          </cell>
-          <cell r="G30">
-            <v>1592108338</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>2661854</v>
-          </cell>
-          <cell r="D31">
-            <v>1450313.7621289482</v>
-          </cell>
-          <cell r="E31">
-            <v>401785</v>
-          </cell>
-          <cell r="F31">
-            <v>252118</v>
-          </cell>
-          <cell r="G31">
-            <v>1447268128</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>1301366.75</v>
-          </cell>
-          <cell r="D32">
-            <v>952690.08485782123</v>
-          </cell>
-          <cell r="E32">
-            <v>208787</v>
-          </cell>
-          <cell r="F32">
-            <v>128906</v>
-          </cell>
-          <cell r="G32">
-            <v>1243969694</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>8661772</v>
-          </cell>
-          <cell r="D33">
-            <v>5826286.8986740075</v>
-          </cell>
-          <cell r="E33">
-            <v>1444299</v>
-          </cell>
-          <cell r="F33">
-            <v>1089830</v>
-          </cell>
-          <cell r="G33">
-            <v>9221716097</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>2026684.125</v>
-          </cell>
-          <cell r="D34">
-            <v>995764.68444728933</v>
-          </cell>
-          <cell r="E34">
-            <v>432285</v>
-          </cell>
-          <cell r="F34">
-            <v>441880</v>
-          </cell>
-          <cell r="G34">
-            <v>3286396184</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>19314646</v>
-          </cell>
-          <cell r="D35">
-            <v>11286396.02544928</v>
-          </cell>
-          <cell r="E35">
-            <v>6276701</v>
-          </cell>
-          <cell r="F35">
-            <v>4263194</v>
-          </cell>
-          <cell r="G35">
-            <v>51788041221</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>9376616</v>
-          </cell>
-          <cell r="D36">
-            <v>5098422.231726639</v>
-          </cell>
-          <cell r="E36">
-            <v>2088294</v>
-          </cell>
-          <cell r="F36">
-            <v>1461915</v>
-          </cell>
-          <cell r="G36">
-            <v>10211202177</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>654970.9375</v>
-          </cell>
-          <cell r="D37">
-            <v>430014.71042376745</v>
-          </cell>
-          <cell r="E37">
-            <v>96501</v>
-          </cell>
-          <cell r="F37">
-            <v>61180</v>
-          </cell>
-          <cell r="G37">
-            <v>713793830</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>11334251</v>
-          </cell>
-          <cell r="D38">
-            <v>6406586.3920488432</v>
-          </cell>
-          <cell r="E38">
-            <v>1817238</v>
-          </cell>
-          <cell r="F38">
-            <v>1893717</v>
-          </cell>
-          <cell r="G38">
-            <v>15405556893</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>3720317.5</v>
-          </cell>
-          <cell r="D39">
-            <v>2043630.2145366694</v>
-          </cell>
-          <cell r="E39">
-            <v>697232</v>
-          </cell>
-          <cell r="F39">
-            <v>640504</v>
-          </cell>
-          <cell r="G39">
-            <v>4230970590</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>3816614.25</v>
-          </cell>
-          <cell r="D40">
-            <v>2197973.0566444425</v>
-          </cell>
-          <cell r="E40">
-            <v>570635</v>
-          </cell>
-          <cell r="F40">
-            <v>475351</v>
-          </cell>
-          <cell r="G40">
-            <v>4309859291</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>12584384</v>
-          </cell>
-          <cell r="D41">
-            <v>7625439.460720052</v>
-          </cell>
-          <cell r="E41">
-            <v>2265032</v>
-          </cell>
-          <cell r="F41">
-            <v>2009918</v>
-          </cell>
-          <cell r="G41">
-            <v>19772631841</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>1042956.1875</v>
-          </cell>
-          <cell r="D42">
-            <v>642217.61108881235</v>
-          </cell>
-          <cell r="E42">
-            <v>277071</v>
-          </cell>
-          <cell r="F42">
-            <v>164357</v>
-          </cell>
-          <cell r="G42">
-            <v>1961071462</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>4569375.5</v>
-          </cell>
-          <cell r="D43">
-            <v>2297842.459383483</v>
-          </cell>
-          <cell r="E43">
-            <v>904614</v>
-          </cell>
-          <cell r="F43">
-            <v>743898</v>
-          </cell>
-          <cell r="G43">
-            <v>4636071692</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>808996.875</v>
-          </cell>
-          <cell r="D44">
-            <v>462029.7754564283</v>
-          </cell>
-          <cell r="E44">
-            <v>106273</v>
-          </cell>
-          <cell r="F44">
-            <v>105289</v>
-          </cell>
-          <cell r="G44">
-            <v>751418305</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>6323933.5</v>
-          </cell>
-          <cell r="D45">
-            <v>3215312.1324729919</v>
-          </cell>
-          <cell r="E45">
-            <v>1436971</v>
-          </cell>
-          <cell r="F45">
-            <v>1221298</v>
-          </cell>
-          <cell r="G45">
-            <v>7956732957</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>25373166</v>
-          </cell>
-          <cell r="D46">
-            <v>13106161.257021897</v>
-          </cell>
-          <cell r="E46">
-            <v>4769534</v>
-          </cell>
-          <cell r="F46">
-            <v>3743707</v>
-          </cell>
-          <cell r="G46">
-            <v>27011324822</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>2821433.75</v>
-          </cell>
-          <cell r="D47">
-            <v>1635295.925413609</v>
-          </cell>
-          <cell r="E47">
-            <v>497356</v>
-          </cell>
-          <cell r="F47">
-            <v>260186</v>
-          </cell>
-          <cell r="G47">
-            <v>1794587075</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>619353.375</v>
-          </cell>
-          <cell r="D48">
-            <v>395740.63415384281</v>
-          </cell>
-          <cell r="E48">
-            <v>182296</v>
-          </cell>
-          <cell r="F48">
-            <v>132449</v>
-          </cell>
-          <cell r="G48">
-            <v>1258455394</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>7873385.5</v>
-          </cell>
-          <cell r="D49">
-            <v>5164473.982846735</v>
-          </cell>
-          <cell r="E49">
-            <v>982150</v>
-          </cell>
-          <cell r="F49">
-            <v>852387</v>
-          </cell>
-          <cell r="G49">
-            <v>6672804559</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>6770326</v>
-          </cell>
-          <cell r="D50">
-            <v>4078566.369532112</v>
-          </cell>
-          <cell r="E50">
-            <v>1442682</v>
-          </cell>
-          <cell r="F50">
-            <v>992662</v>
-          </cell>
-          <cell r="G50">
-            <v>6975052001</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>1816362</v>
-          </cell>
-          <cell r="D51">
-            <v>963587.93747329677</v>
-          </cell>
-          <cell r="E51">
-            <v>508769</v>
-          </cell>
-          <cell r="F51">
-            <v>319608</v>
-          </cell>
-          <cell r="G51">
-            <v>2769269700</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>5648114</v>
-          </cell>
-          <cell r="D52">
-            <v>3536887.977611063</v>
-          </cell>
-          <cell r="E52">
-            <v>1099381</v>
-          </cell>
-          <cell r="F52">
-            <v>1012757</v>
-          </cell>
-          <cell r="G52">
-            <v>7031419790</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>549871.625</v>
-          </cell>
-          <cell r="D53">
-            <v>338841.74967312842</v>
-          </cell>
-          <cell r="E53">
-            <v>62953</v>
-          </cell>
-          <cell r="F53">
-            <v>66306</v>
-          </cell>
-          <cell r="G53">
-            <v>544228281</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="C2">
-            <v>307468461.4375</v>
-          </cell>
-          <cell r="D2">
-            <v>175385922.9025884</v>
-          </cell>
-          <cell r="E2">
-            <v>63881760</v>
-          </cell>
-          <cell r="F2">
-            <v>50148749</v>
-          </cell>
-          <cell r="G2">
-            <v>334695796448</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>4718503.5</v>
-          </cell>
-          <cell r="D3">
-            <v>2533870.9437217722</v>
-          </cell>
-          <cell r="E3">
-            <v>710762</v>
-          </cell>
-          <cell r="F3">
-            <v>727712</v>
-          </cell>
-          <cell r="G3">
-            <v>3432665023</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>703106.375</v>
-          </cell>
-          <cell r="D4">
-            <v>446701.34039276832</v>
-          </cell>
-          <cell r="E4">
-            <v>134345</v>
-          </cell>
-          <cell r="F4">
-            <v>110132</v>
-          </cell>
-          <cell r="G4">
-            <v>1187208628</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>6632165</v>
-          </cell>
-          <cell r="D5">
-            <v>3517099.7731132526</v>
-          </cell>
-          <cell r="E5">
-            <v>1665493</v>
-          </cell>
-          <cell r="F5">
-            <v>1149975</v>
-          </cell>
-          <cell r="G5">
-            <v>8842790551</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>2894530.25</v>
-          </cell>
-          <cell r="D6">
-            <v>1411911.253579139</v>
-          </cell>
-          <cell r="E6">
-            <v>677564</v>
-          </cell>
-          <cell r="F6">
-            <v>510363</v>
-          </cell>
-          <cell r="G6">
-            <v>2994938047</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>37428844</v>
-          </cell>
-          <cell r="D7">
-            <v>20075759.894365348</v>
-          </cell>
-          <cell r="E7">
-            <v>9121390</v>
-          </cell>
-          <cell r="F7">
-            <v>7178279</v>
-          </cell>
-          <cell r="G7">
-            <v>47500326506</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>5038697.5</v>
-          </cell>
-          <cell r="D8">
-            <v>3274164.3195550493</v>
-          </cell>
-          <cell r="E8">
-            <v>623907</v>
-          </cell>
-          <cell r="F8">
-            <v>504155</v>
-          </cell>
-          <cell r="G8">
-            <v>3617183552</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>3507134.25</v>
-          </cell>
-          <cell r="D9">
-            <v>2466601.6219564704</v>
-          </cell>
-          <cell r="E9">
-            <v>714924</v>
-          </cell>
-          <cell r="F9">
-            <v>538438</v>
-          </cell>
-          <cell r="G9">
-            <v>4366256663</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>891979.4375</v>
-          </cell>
-          <cell r="D10">
-            <v>543190.43085098267</v>
-          </cell>
-          <cell r="E10">
-            <v>155640</v>
-          </cell>
-          <cell r="F10">
-            <v>161973</v>
-          </cell>
-          <cell r="G10">
-            <v>1234022281</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>613821.5</v>
-          </cell>
-          <cell r="D11">
-            <v>359409.68931454385</v>
-          </cell>
-          <cell r="E11">
-            <v>202541</v>
-          </cell>
-          <cell r="F11">
-            <v>159737</v>
-          </cell>
-          <cell r="G11">
-            <v>1743040706</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>18771256</v>
-          </cell>
-          <cell r="D12">
-            <v>10337392.151321409</v>
-          </cell>
-          <cell r="E12">
-            <v>3261098</v>
-          </cell>
-          <cell r="F12">
-            <v>2792302</v>
-          </cell>
-          <cell r="G12">
-            <v>14057634069</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>9757314</v>
-          </cell>
-          <cell r="D13">
-            <v>5151394.4813075075</v>
-          </cell>
-          <cell r="E13">
-            <v>1889672</v>
-          </cell>
-          <cell r="F13">
-            <v>1495836</v>
-          </cell>
-          <cell r="G13">
-            <v>6507546165</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>1298291.25</v>
-          </cell>
-          <cell r="D14">
-            <v>788617.19088041841</v>
-          </cell>
-          <cell r="E14">
-            <v>326723</v>
-          </cell>
-          <cell r="F14">
-            <v>244117</v>
-          </cell>
-          <cell r="G14">
-            <v>1534768752</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>1552785.125</v>
-          </cell>
-          <cell r="D15">
-            <v>775891.04042911518</v>
-          </cell>
-          <cell r="E15">
-            <v>239475</v>
-          </cell>
-          <cell r="F15">
-            <v>181129</v>
-          </cell>
-          <cell r="G15">
-            <v>1258873910</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>12805608</v>
-          </cell>
-          <cell r="D16">
-            <v>7362620.979228016</v>
-          </cell>
-          <cell r="E16">
-            <v>2884845</v>
-          </cell>
-          <cell r="F16">
-            <v>2471471</v>
-          </cell>
-          <cell r="G16">
-            <v>10903885549</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>6356050.5</v>
-          </cell>
-          <cell r="D17">
-            <v>3543807.136253831</v>
-          </cell>
-          <cell r="E17">
-            <v>1035684</v>
-          </cell>
-          <cell r="F17">
-            <v>942361</v>
-          </cell>
-          <cell r="G17">
-            <v>4942611496</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>2997905</v>
-          </cell>
-          <cell r="D18">
-            <v>1834077.71282458</v>
-          </cell>
-          <cell r="E18">
-            <v>570619</v>
-          </cell>
-          <cell r="F18">
-            <v>434825</v>
-          </cell>
-          <cell r="G18">
-            <v>2430643204</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>2785742.25</v>
-          </cell>
-          <cell r="D19">
-            <v>1570344.8751740453</v>
-          </cell>
-          <cell r="E19">
-            <v>541866</v>
-          </cell>
-          <cell r="F19">
-            <v>320310</v>
-          </cell>
-          <cell r="G19">
-            <v>2141124625</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>4301251</v>
-          </cell>
-          <cell r="D20">
-            <v>2176437.2411308265</v>
-          </cell>
-          <cell r="E20">
-            <v>913888</v>
-          </cell>
-          <cell r="F20">
-            <v>723846</v>
-          </cell>
-          <cell r="G20">
-            <v>4630628689</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>4468767</v>
-          </cell>
-          <cell r="D21">
-            <v>2249887.944792273</v>
-          </cell>
-          <cell r="E21">
-            <v>1166021</v>
-          </cell>
-          <cell r="F21">
-            <v>980581</v>
-          </cell>
-          <cell r="G21">
-            <v>4986971289</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>1307175</v>
-          </cell>
-          <cell r="D22">
-            <v>776243.51776218391</v>
-          </cell>
-          <cell r="E22">
-            <v>362063</v>
-          </cell>
-          <cell r="F22">
-            <v>270558</v>
-          </cell>
-          <cell r="G22">
-            <v>1971074802</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>5769205</v>
-          </cell>
-          <cell r="D23">
-            <v>3973154.1688084607</v>
-          </cell>
-          <cell r="E23">
-            <v>928906</v>
-          </cell>
-          <cell r="F23">
-            <v>763998</v>
-          </cell>
-          <cell r="G23">
-            <v>6319566449</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>6569638.5</v>
-          </cell>
-          <cell r="D24">
-            <v>4443357.6373343449</v>
-          </cell>
-          <cell r="E24">
-            <v>1622820</v>
-          </cell>
-          <cell r="F24">
-            <v>1046563</v>
-          </cell>
-          <cell r="G24">
-            <v>11452892102</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>9737212</v>
-          </cell>
-          <cell r="D25">
-            <v>5639716.8463373221</v>
-          </cell>
-          <cell r="E25">
-            <v>1997339</v>
-          </cell>
-          <cell r="F25">
-            <v>1724772</v>
-          </cell>
-          <cell r="G25">
-            <v>10178704142</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>5235715.5</v>
-          </cell>
-          <cell r="D26">
-            <v>3462750.0085201222</v>
-          </cell>
-          <cell r="E26">
-            <v>1395952</v>
-          </cell>
-          <cell r="F26">
-            <v>666928</v>
-          </cell>
-          <cell r="G26">
-            <v>7340163422</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>2931505.75</v>
-          </cell>
-          <cell r="D27">
-            <v>1441896.1287727361</v>
-          </cell>
-          <cell r="E27">
-            <v>662450</v>
-          </cell>
-          <cell r="F27">
-            <v>556334</v>
-          </cell>
-          <cell r="G27">
-            <v>3151798488</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>5938243</v>
-          </cell>
-          <cell r="D28">
-            <v>3462866.6262707692</v>
-          </cell>
-          <cell r="E28">
-            <v>974810</v>
-          </cell>
-          <cell r="F28">
-            <v>843371</v>
-          </cell>
-          <cell r="G28">
-            <v>6227035327</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>978695.25</v>
-          </cell>
-          <cell r="D29">
-            <v>501078.13454055809</v>
-          </cell>
-          <cell r="E29">
-            <v>214967</v>
-          </cell>
-          <cell r="F29">
-            <v>99572</v>
-          </cell>
-          <cell r="G29">
-            <v>772818689</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>1806568.625</v>
-          </cell>
-          <cell r="D30">
-            <v>1115204.4802653787</v>
-          </cell>
-          <cell r="E30">
-            <v>317231</v>
-          </cell>
-          <cell r="F30">
-            <v>215718</v>
-          </cell>
-          <cell r="G30">
-            <v>1257566338</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>2661854</v>
-          </cell>
-          <cell r="D31">
-            <v>1450313.7621289482</v>
-          </cell>
-          <cell r="E31">
-            <v>401785</v>
-          </cell>
-          <cell r="F31">
-            <v>252118</v>
-          </cell>
-          <cell r="G31">
-            <v>1257892128</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>1301366.75</v>
-          </cell>
-          <cell r="D32">
-            <v>952690.08485782123</v>
-          </cell>
-          <cell r="E32">
-            <v>208787</v>
-          </cell>
-          <cell r="F32">
-            <v>128906</v>
-          </cell>
-          <cell r="G32">
-            <v>927638694</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>8661772</v>
-          </cell>
-          <cell r="D33">
-            <v>5826286.8986740075</v>
-          </cell>
-          <cell r="E33">
-            <v>1444299</v>
-          </cell>
-          <cell r="F33">
-            <v>1089830</v>
-          </cell>
-          <cell r="G33">
-            <v>6679200097</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>2026684.125</v>
-          </cell>
-          <cell r="D34">
-            <v>995764.68444728933</v>
-          </cell>
-          <cell r="E34">
-            <v>432285</v>
-          </cell>
-          <cell r="F34">
-            <v>441880</v>
-          </cell>
-          <cell r="G34">
-            <v>3257860184</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>19314646</v>
-          </cell>
-          <cell r="D35">
-            <v>11286396.02544928</v>
-          </cell>
-          <cell r="E35">
-            <v>6276701</v>
-          </cell>
-          <cell r="F35">
-            <v>4263194</v>
-          </cell>
-          <cell r="G35">
-            <v>40702563221</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>9376616</v>
-          </cell>
-          <cell r="D36">
-            <v>5098422.231726639</v>
-          </cell>
-          <cell r="E36">
-            <v>2088294</v>
-          </cell>
-          <cell r="F36">
-            <v>1461915</v>
-          </cell>
-          <cell r="G36">
-            <v>8511184177</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>654970.9375</v>
-          </cell>
-          <cell r="D37">
-            <v>430014.71042376745</v>
-          </cell>
-          <cell r="E37">
-            <v>96501</v>
-          </cell>
-          <cell r="F37">
-            <v>61180</v>
-          </cell>
-          <cell r="G37">
-            <v>419506830</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>11334251</v>
-          </cell>
-          <cell r="D38">
-            <v>6406586.3920488432</v>
-          </cell>
-          <cell r="E38">
-            <v>1817238</v>
-          </cell>
-          <cell r="F38">
-            <v>1893717</v>
-          </cell>
-          <cell r="G38">
-            <v>12065546893</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>3720317.5</v>
-          </cell>
-          <cell r="D39">
-            <v>2043630.2145366694</v>
-          </cell>
-          <cell r="E39">
-            <v>697232</v>
-          </cell>
-          <cell r="F39">
-            <v>640504</v>
-          </cell>
-          <cell r="G39">
-            <v>3607692590</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>3816614.25</v>
-          </cell>
-          <cell r="D40">
-            <v>2197973.0566444425</v>
-          </cell>
-          <cell r="E40">
-            <v>570635</v>
-          </cell>
-          <cell r="F40">
-            <v>475351</v>
-          </cell>
-          <cell r="G40">
-            <v>3964603291</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>12584384</v>
-          </cell>
-          <cell r="D41">
-            <v>7625439.460720052</v>
-          </cell>
-          <cell r="E41">
-            <v>2265032</v>
-          </cell>
-          <cell r="F41">
-            <v>2009918</v>
-          </cell>
-          <cell r="G41">
-            <v>15488930841</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>1042956.1875</v>
-          </cell>
-          <cell r="D42">
-            <v>642217.61108881235</v>
-          </cell>
-          <cell r="E42">
-            <v>277071</v>
-          </cell>
-          <cell r="F42">
-            <v>164357</v>
-          </cell>
-          <cell r="G42">
-            <v>1638715462</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>4569375.5</v>
-          </cell>
-          <cell r="D43">
-            <v>2297842.459383483</v>
-          </cell>
-          <cell r="E43">
-            <v>904614</v>
-          </cell>
-          <cell r="F43">
-            <v>743898</v>
-          </cell>
-          <cell r="G43">
-            <v>3967951692</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>808996.875</v>
-          </cell>
-          <cell r="D44">
-            <v>462029.7754564283</v>
-          </cell>
-          <cell r="E44">
-            <v>106273</v>
-          </cell>
-          <cell r="F44">
-            <v>105289</v>
-          </cell>
-          <cell r="G44">
-            <v>590205305</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>6323933.5</v>
-          </cell>
-          <cell r="D45">
-            <v>3215312.1324729919</v>
-          </cell>
-          <cell r="E45">
-            <v>1436971</v>
-          </cell>
-          <cell r="F45">
-            <v>1221298</v>
-          </cell>
-          <cell r="G45">
-            <v>7709464957</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>25373166</v>
-          </cell>
-          <cell r="D46">
-            <v>13106161.257021897</v>
-          </cell>
-          <cell r="E46">
-            <v>4769534</v>
-          </cell>
-          <cell r="F46">
-            <v>3743707</v>
-          </cell>
-          <cell r="G46">
-            <v>23964201822</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>2821433.75</v>
-          </cell>
-          <cell r="D47">
-            <v>1635295.925413609</v>
-          </cell>
-          <cell r="E47">
-            <v>497356</v>
-          </cell>
-          <cell r="F47">
-            <v>260186</v>
-          </cell>
-          <cell r="G47">
-            <v>1574878075</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>619353.375</v>
-          </cell>
-          <cell r="D48">
-            <v>395740.63415384281</v>
-          </cell>
-          <cell r="E48">
-            <v>182296</v>
-          </cell>
-          <cell r="F48">
-            <v>132449</v>
-          </cell>
-          <cell r="G48">
-            <v>1147391394</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>7873385.5</v>
-          </cell>
-          <cell r="D49">
-            <v>5164473.982846735</v>
-          </cell>
-          <cell r="E49">
-            <v>982150</v>
-          </cell>
-          <cell r="F49">
-            <v>852387</v>
-          </cell>
-          <cell r="G49">
-            <v>5577544559</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>6770326</v>
-          </cell>
-          <cell r="D50">
-            <v>4078566.369532112</v>
-          </cell>
-          <cell r="E50">
-            <v>1442682</v>
-          </cell>
-          <cell r="F50">
-            <v>992662</v>
-          </cell>
-          <cell r="G50">
-            <v>6236556001</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>1816362</v>
-          </cell>
-          <cell r="D51">
-            <v>963587.93747329677</v>
-          </cell>
-          <cell r="E51">
-            <v>508769</v>
-          </cell>
-          <cell r="F51">
-            <v>319608</v>
-          </cell>
-          <cell r="G51">
-            <v>2201657700</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>5648114</v>
-          </cell>
-          <cell r="D52">
-            <v>3536887.977611063</v>
-          </cell>
-          <cell r="E52">
-            <v>1099381</v>
-          </cell>
-          <cell r="F52">
-            <v>1012757</v>
-          </cell>
-          <cell r="G52">
-            <v>5775541790</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>549871.625</v>
-          </cell>
-          <cell r="D53">
-            <v>338841.74967312842</v>
-          </cell>
-          <cell r="E53">
-            <v>62953</v>
-          </cell>
-          <cell r="F53">
-            <v>66306</v>
-          </cell>
-          <cell r="G53">
-            <v>444329281</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2708,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2768,23 +1044,18 @@
         <v>8</v>
       </c>
       <c r="C3" s="9">
-        <f>'[1]Data - V2'!C2</f>
         <v>307468461.4375</v>
       </c>
       <c r="D3" s="9">
-        <f>'[1]Data - V2'!D2</f>
         <v>175385922.9025884</v>
       </c>
       <c r="E3" s="10">
-        <f>'[1]Data - V2'!E2</f>
         <v>63881760</v>
       </c>
       <c r="F3" s="9">
-        <f>'[1]Data - V2'!F2</f>
         <v>50148749</v>
       </c>
       <c r="G3" s="9">
-        <f>'[1]Data - V2'!G2</f>
         <v>397635211448</v>
       </c>
     </row>
@@ -2796,23 +1067,18 @@
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <f>'[1]Data - V2'!C3</f>
         <v>4718503.5</v>
       </c>
       <c r="D4" s="6">
-        <f>'[1]Data - V2'!D3</f>
         <v>2533870.9437217722</v>
       </c>
       <c r="E4" s="5">
-        <f>'[1]Data - V2'!E3</f>
         <v>710762</v>
       </c>
       <c r="F4" s="6">
-        <f>'[1]Data - V2'!F3</f>
         <v>727712</v>
       </c>
       <c r="G4" s="7">
-        <f>'[1]Data - V2'!G3</f>
         <v>4367220023</v>
       </c>
     </row>
@@ -2824,23 +1090,18 @@
         <v>12</v>
       </c>
       <c r="C5" s="4">
-        <f>'[1]Data - V2'!C4</f>
         <v>703106.375</v>
       </c>
       <c r="D5" s="6">
-        <f>'[1]Data - V2'!D4</f>
         <v>446701.34039276832</v>
       </c>
       <c r="E5" s="5">
-        <f>'[1]Data - V2'!E4</f>
         <v>134345</v>
       </c>
       <c r="F5" s="6">
-        <f>'[1]Data - V2'!F4</f>
         <v>110132</v>
       </c>
       <c r="G5" s="7">
-        <f>'[1]Data - V2'!G4</f>
         <v>1313397628</v>
       </c>
     </row>
@@ -2852,23 +1113,18 @@
         <v>14</v>
       </c>
       <c r="C6" s="4">
-        <f>'[1]Data - V2'!C5</f>
         <v>6632165</v>
       </c>
       <c r="D6" s="6">
-        <f>'[1]Data - V2'!D5</f>
         <v>3517099.7731132526</v>
       </c>
       <c r="E6" s="5">
-        <f>'[1]Data - V2'!E5</f>
         <v>1665493</v>
       </c>
       <c r="F6" s="6">
-        <f>'[1]Data - V2'!F5</f>
         <v>1149975</v>
       </c>
       <c r="G6" s="7">
-        <f>'[1]Data - V2'!G5</f>
         <v>8878439551</v>
       </c>
     </row>
@@ -2880,23 +1136,18 @@
         <v>16</v>
       </c>
       <c r="C7" s="4">
-        <f>'[1]Data - V2'!C6</f>
         <v>2894530.25</v>
       </c>
       <c r="D7" s="6">
-        <f>'[1]Data - V2'!D6</f>
         <v>1411911.253579139</v>
       </c>
       <c r="E7" s="5">
-        <f>'[1]Data - V2'!E6</f>
         <v>677564</v>
       </c>
       <c r="F7" s="6">
-        <f>'[1]Data - V2'!F6</f>
         <v>510363</v>
       </c>
       <c r="G7" s="7">
-        <f>'[1]Data - V2'!G6</f>
         <v>3778910047</v>
       </c>
     </row>
@@ -2908,23 +1159,18 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <f>'[1]Data - V2'!C7</f>
         <v>37428844</v>
       </c>
       <c r="D8" s="6">
-        <f>'[1]Data - V2'!D7</f>
         <v>20075759.894365348</v>
       </c>
       <c r="E8" s="5">
-        <f>'[1]Data - V2'!E7</f>
         <v>9121390</v>
       </c>
       <c r="F8" s="6">
-        <f>'[1]Data - V2'!F7</f>
         <v>7178279</v>
       </c>
       <c r="G8" s="7">
-        <f>'[1]Data - V2'!G7</f>
         <v>52128660506</v>
       </c>
     </row>
@@ -2936,23 +1182,18 @@
         <v>20</v>
       </c>
       <c r="C9" s="4">
-        <f>'[1]Data - V2'!C8</f>
         <v>5038697.5</v>
       </c>
       <c r="D9" s="6">
-        <f>'[1]Data - V2'!D8</f>
         <v>3274164.3195550493</v>
       </c>
       <c r="E9" s="5">
-        <f>'[1]Data - V2'!E8</f>
         <v>623907</v>
       </c>
       <c r="F9" s="6">
-        <f>'[1]Data - V2'!F8</f>
         <v>504155</v>
       </c>
       <c r="G9" s="7">
-        <f>'[1]Data - V2'!G8</f>
         <v>4231188552</v>
       </c>
     </row>
@@ -2964,23 +1205,18 @@
         <v>22</v>
       </c>
       <c r="C10" s="4">
-        <f>'[1]Data - V2'!C9</f>
         <v>3507134.25</v>
       </c>
       <c r="D10" s="6">
-        <f>'[1]Data - V2'!D9</f>
         <v>2466601.6219564704</v>
       </c>
       <c r="E10" s="5">
-        <f>'[1]Data - V2'!E9</f>
         <v>714924</v>
       </c>
       <c r="F10" s="6">
-        <f>'[1]Data - V2'!F9</f>
         <v>538438</v>
       </c>
       <c r="G10" s="7">
-        <f>'[1]Data - V2'!G9</f>
         <v>5867898663</v>
       </c>
     </row>
@@ -2992,23 +1228,18 @@
         <v>24</v>
       </c>
       <c r="C11" s="4">
-        <f>'[1]Data - V2'!C10</f>
         <v>891979.4375</v>
       </c>
       <c r="D11" s="6">
-        <f>'[1]Data - V2'!D10</f>
         <v>543190.43085098267</v>
       </c>
       <c r="E11" s="5">
-        <f>'[1]Data - V2'!E10</f>
         <v>155640</v>
       </c>
       <c r="F11" s="6">
-        <f>'[1]Data - V2'!F10</f>
         <v>161973</v>
       </c>
       <c r="G11" s="7">
-        <f>'[1]Data - V2'!G10</f>
         <v>1442996281</v>
       </c>
     </row>
@@ -3020,23 +1251,18 @@
         <v>26</v>
       </c>
       <c r="C12" s="4">
-        <f>'[1]Data - V2'!C11</f>
         <v>613821.5</v>
       </c>
       <c r="D12" s="6">
-        <f>'[1]Data - V2'!D11</f>
         <v>359409.68931454385</v>
       </c>
       <c r="E12" s="5">
-        <f>'[1]Data - V2'!E11</f>
         <v>202541</v>
       </c>
       <c r="F12" s="6">
-        <f>'[1]Data - V2'!F11</f>
         <v>159737</v>
       </c>
       <c r="G12" s="7">
-        <f>'[1]Data - V2'!G11</f>
         <v>2073262706</v>
       </c>
     </row>
@@ -3048,23 +1274,18 @@
         <v>28</v>
       </c>
       <c r="C13" s="4">
-        <f>'[1]Data - V2'!C12</f>
         <v>18771256</v>
       </c>
       <c r="D13" s="6">
-        <f>'[1]Data - V2'!D12</f>
         <v>10337392.151321409</v>
       </c>
       <c r="E13" s="5">
-        <f>'[1]Data - V2'!E12</f>
         <v>3261098</v>
       </c>
       <c r="F13" s="6">
-        <f>'[1]Data - V2'!F12</f>
         <v>2792302</v>
       </c>
       <c r="G13" s="7">
-        <f>'[1]Data - V2'!G12</f>
         <v>17257433069</v>
       </c>
     </row>
@@ -3076,23 +1297,18 @@
         <v>30</v>
       </c>
       <c r="C14" s="4">
-        <f>'[1]Data - V2'!C13</f>
         <v>9757314</v>
       </c>
       <c r="D14" s="6">
-        <f>'[1]Data - V2'!D13</f>
         <v>5151394.4813075075</v>
       </c>
       <c r="E14" s="5">
-        <f>'[1]Data - V2'!E13</f>
         <v>1889672</v>
       </c>
       <c r="F14" s="6">
-        <f>'[1]Data - V2'!F13</f>
         <v>1495836</v>
       </c>
       <c r="G14" s="7">
-        <f>'[1]Data - V2'!G13</f>
         <v>7703280165</v>
       </c>
     </row>
@@ -3104,23 +1320,18 @@
         <v>32</v>
       </c>
       <c r="C15" s="4">
-        <f>'[1]Data - V2'!C14</f>
         <v>1298291.25</v>
       </c>
       <c r="D15" s="6">
-        <f>'[1]Data - V2'!D14</f>
         <v>788617.19088041841</v>
       </c>
       <c r="E15" s="5">
-        <f>'[1]Data - V2'!E14</f>
         <v>326723</v>
       </c>
       <c r="F15" s="6">
-        <f>'[1]Data - V2'!F14</f>
         <v>244117</v>
       </c>
       <c r="G15" s="7">
-        <f>'[1]Data - V2'!G14</f>
         <v>1544832752</v>
       </c>
     </row>
@@ -3132,23 +1343,18 @@
         <v>34</v>
       </c>
       <c r="C16" s="4">
-        <f>'[1]Data - V2'!C15</f>
         <v>1552785.125</v>
       </c>
       <c r="D16" s="6">
-        <f>'[1]Data - V2'!D15</f>
         <v>775891.04042911518</v>
       </c>
       <c r="E16" s="5">
-        <f>'[1]Data - V2'!E15</f>
         <v>239475</v>
       </c>
       <c r="F16" s="6">
-        <f>'[1]Data - V2'!F15</f>
         <v>181129</v>
       </c>
       <c r="G16" s="7">
-        <f>'[1]Data - V2'!G15</f>
         <v>1550009910</v>
       </c>
     </row>
@@ -3160,23 +1366,18 @@
         <v>36</v>
       </c>
       <c r="C17" s="4">
-        <f>'[1]Data - V2'!C16</f>
         <v>12805608</v>
       </c>
       <c r="D17" s="6">
-        <f>'[1]Data - V2'!D16</f>
         <v>7362620.979228016</v>
       </c>
       <c r="E17" s="5">
-        <f>'[1]Data - V2'!E16</f>
         <v>2884845</v>
       </c>
       <c r="F17" s="6">
-        <f>'[1]Data - V2'!F16</f>
         <v>2471471</v>
       </c>
       <c r="G17" s="7">
-        <f>'[1]Data - V2'!G16</f>
         <v>13108300549</v>
       </c>
     </row>
@@ -3188,23 +1389,18 @@
         <v>38</v>
       </c>
       <c r="C18" s="4">
-        <f>'[1]Data - V2'!C17</f>
         <v>6356050.5</v>
       </c>
       <c r="D18" s="6">
-        <f>'[1]Data - V2'!D17</f>
         <v>3543807.136253831</v>
       </c>
       <c r="E18" s="5">
-        <f>'[1]Data - V2'!E17</f>
         <v>1035684</v>
       </c>
       <c r="F18" s="6">
-        <f>'[1]Data - V2'!F17</f>
         <v>942361</v>
       </c>
       <c r="G18" s="7">
-        <f>'[1]Data - V2'!G17</f>
         <v>6473460496</v>
       </c>
     </row>
@@ -3216,23 +1412,18 @@
         <v>40</v>
       </c>
       <c r="C19" s="4">
-        <f>'[1]Data - V2'!C18</f>
         <v>2997905</v>
       </c>
       <c r="D19" s="6">
-        <f>'[1]Data - V2'!D18</f>
         <v>1834077.71282458</v>
       </c>
       <c r="E19" s="5">
-        <f>'[1]Data - V2'!E18</f>
         <v>570619</v>
       </c>
       <c r="F19" s="6">
-        <f>'[1]Data - V2'!F18</f>
         <v>434825</v>
       </c>
       <c r="G19" s="7">
-        <f>'[1]Data - V2'!G18</f>
         <v>3285706204</v>
       </c>
     </row>
@@ -3244,23 +1435,18 @@
         <v>42</v>
       </c>
       <c r="C20" s="4">
-        <f>'[1]Data - V2'!C19</f>
         <v>2785742.25</v>
       </c>
       <c r="D20" s="6">
-        <f>'[1]Data - V2'!D19</f>
         <v>1570344.8751740453</v>
       </c>
       <c r="E20" s="5">
-        <f>'[1]Data - V2'!E19</f>
         <v>541866</v>
       </c>
       <c r="F20" s="6">
-        <f>'[1]Data - V2'!F19</f>
         <v>320310</v>
       </c>
       <c r="G20" s="7">
-        <f>'[1]Data - V2'!G19</f>
         <v>2620639625</v>
       </c>
     </row>
@@ -3272,23 +1458,18 @@
         <v>44</v>
       </c>
       <c r="C21" s="4">
-        <f>'[1]Data - V2'!C20</f>
         <v>4301251</v>
       </c>
       <c r="D21" s="6">
-        <f>'[1]Data - V2'!D20</f>
         <v>2176437.2411308265</v>
       </c>
       <c r="E21" s="5">
-        <f>'[1]Data - V2'!E20</f>
         <v>913888</v>
       </c>
       <c r="F21" s="6">
-        <f>'[1]Data - V2'!F20</f>
         <v>723846</v>
       </c>
       <c r="G21" s="7">
-        <f>'[1]Data - V2'!G20</f>
         <v>5623093689</v>
       </c>
     </row>
@@ -3300,23 +1481,18 @@
         <v>46</v>
       </c>
       <c r="C22" s="4">
-        <f>'[1]Data - V2'!C21</f>
         <v>4468767</v>
       </c>
       <c r="D22" s="6">
-        <f>'[1]Data - V2'!D21</f>
         <v>2249887.944792273</v>
       </c>
       <c r="E22" s="5">
-        <f>'[1]Data - V2'!E21</f>
         <v>1166021</v>
       </c>
       <c r="F22" s="6">
-        <f>'[1]Data - V2'!F21</f>
         <v>980581</v>
       </c>
       <c r="G22" s="7">
-        <f>'[1]Data - V2'!G21</f>
         <v>6258944289</v>
       </c>
     </row>
@@ -3328,23 +1504,18 @@
         <v>48</v>
       </c>
       <c r="C23" s="4">
-        <f>'[1]Data - V2'!C22</f>
         <v>1307175</v>
       </c>
       <c r="D23" s="6">
-        <f>'[1]Data - V2'!D22</f>
         <v>776243.51776218391</v>
       </c>
       <c r="E23" s="5">
-        <f>'[1]Data - V2'!E22</f>
         <v>362063</v>
       </c>
       <c r="F23" s="6">
-        <f>'[1]Data - V2'!F22</f>
         <v>270558</v>
       </c>
       <c r="G23" s="7">
-        <f>'[1]Data - V2'!G22</f>
         <v>2234377802</v>
       </c>
     </row>
@@ -3356,23 +1527,18 @@
         <v>50</v>
       </c>
       <c r="C24" s="4">
-        <f>'[1]Data - V2'!C23</f>
         <v>5769205</v>
       </c>
       <c r="D24" s="6">
-        <f>'[1]Data - V2'!D23</f>
         <v>3973154.1688084607</v>
       </c>
       <c r="E24" s="5">
-        <f>'[1]Data - V2'!E23</f>
         <v>928906</v>
       </c>
       <c r="F24" s="6">
-        <f>'[1]Data - V2'!F23</f>
         <v>763998</v>
       </c>
       <c r="G24" s="7">
-        <f>'[1]Data - V2'!G23</f>
         <v>7399661449</v>
       </c>
     </row>
@@ -3384,23 +1550,18 @@
         <v>52</v>
       </c>
       <c r="C25" s="4">
-        <f>'[1]Data - V2'!C24</f>
         <v>6569638.5</v>
       </c>
       <c r="D25" s="6">
-        <f>'[1]Data - V2'!D24</f>
         <v>4443357.6373343449</v>
       </c>
       <c r="E25" s="5">
-        <f>'[1]Data - V2'!E24</f>
         <v>1622820</v>
       </c>
       <c r="F25" s="6">
-        <f>'[1]Data - V2'!F24</f>
         <v>1046563</v>
       </c>
       <c r="G25" s="7">
-        <f>'[1]Data - V2'!G24</f>
         <v>13152502102</v>
       </c>
     </row>
@@ -3412,23 +1573,18 @@
         <v>54</v>
       </c>
       <c r="C26" s="4">
-        <f>'[1]Data - V2'!C25</f>
         <v>9737212</v>
       </c>
       <c r="D26" s="6">
-        <f>'[1]Data - V2'!D25</f>
         <v>5639716.8463373221</v>
       </c>
       <c r="E26" s="5">
-        <f>'[1]Data - V2'!E25</f>
         <v>1997339</v>
       </c>
       <c r="F26" s="6">
-        <f>'[1]Data - V2'!F25</f>
         <v>1724772</v>
       </c>
       <c r="G26" s="7">
-        <f>'[1]Data - V2'!G25</f>
         <v>11895180142</v>
       </c>
     </row>
@@ -3440,23 +1596,18 @@
         <v>56</v>
       </c>
       <c r="C27" s="4">
-        <f>'[1]Data - V2'!C26</f>
         <v>5235715.5</v>
       </c>
       <c r="D27" s="6">
-        <f>'[1]Data - V2'!D26</f>
         <v>3462750.0085201222</v>
       </c>
       <c r="E27" s="5">
-        <f>'[1]Data - V2'!E26</f>
         <v>1395952</v>
       </c>
       <c r="F27" s="6">
-        <f>'[1]Data - V2'!F26</f>
         <v>666928</v>
       </c>
       <c r="G27" s="7">
-        <f>'[1]Data - V2'!G26</f>
         <v>8286986422</v>
       </c>
     </row>
@@ -3468,23 +1619,18 @@
         <v>58</v>
       </c>
       <c r="C28" s="4">
-        <f>'[1]Data - V2'!C27</f>
         <v>2931505.75</v>
       </c>
       <c r="D28" s="6">
-        <f>'[1]Data - V2'!D27</f>
         <v>1441896.1287727361</v>
       </c>
       <c r="E28" s="5">
-        <f>'[1]Data - V2'!E27</f>
         <v>662450</v>
       </c>
       <c r="F28" s="6">
-        <f>'[1]Data - V2'!F27</f>
         <v>556334</v>
       </c>
       <c r="G28" s="7">
-        <f>'[1]Data - V2'!G27</f>
         <v>4169864488</v>
       </c>
     </row>
@@ -3496,23 +1642,18 @@
         <v>60</v>
       </c>
       <c r="C29" s="4">
-        <f>'[1]Data - V2'!C28</f>
         <v>5938243</v>
       </c>
       <c r="D29" s="6">
-        <f>'[1]Data - V2'!D28</f>
         <v>3462866.6262707692</v>
       </c>
       <c r="E29" s="5">
-        <f>'[1]Data - V2'!E28</f>
         <v>974810</v>
       </c>
       <c r="F29" s="6">
-        <f>'[1]Data - V2'!F28</f>
         <v>843371</v>
       </c>
       <c r="G29" s="7">
-        <f>'[1]Data - V2'!G28</f>
         <v>7453930327</v>
       </c>
     </row>
@@ -3524,23 +1665,18 @@
         <v>62</v>
       </c>
       <c r="C30" s="4">
-        <f>'[1]Data - V2'!C29</f>
         <v>978695.25</v>
       </c>
       <c r="D30" s="6">
-        <f>'[1]Data - V2'!D29</f>
         <v>501078.13454055809</v>
       </c>
       <c r="E30" s="5">
-        <f>'[1]Data - V2'!E29</f>
         <v>214967</v>
       </c>
       <c r="F30" s="6">
-        <f>'[1]Data - V2'!F29</f>
         <v>99572</v>
       </c>
       <c r="G30" s="7">
-        <f>'[1]Data - V2'!G29</f>
         <v>949083689</v>
       </c>
     </row>
@@ -3552,23 +1688,18 @@
         <v>64</v>
       </c>
       <c r="C31" s="4">
-        <f>'[1]Data - V2'!C30</f>
         <v>1806568.625</v>
       </c>
       <c r="D31" s="6">
-        <f>'[1]Data - V2'!D30</f>
         <v>1115204.4802653787</v>
       </c>
       <c r="E31" s="5">
-        <f>'[1]Data - V2'!E30</f>
         <v>317231</v>
       </c>
       <c r="F31" s="6">
-        <f>'[1]Data - V2'!F30</f>
         <v>215718</v>
       </c>
       <c r="G31" s="7">
-        <f>'[1]Data - V2'!G30</f>
         <v>1592108338</v>
       </c>
     </row>
@@ -3580,23 +1711,18 @@
         <v>66</v>
       </c>
       <c r="C32" s="4">
-        <f>'[1]Data - V2'!C31</f>
         <v>2661854</v>
       </c>
       <c r="D32" s="6">
-        <f>'[1]Data - V2'!D31</f>
         <v>1450313.7621289482</v>
       </c>
       <c r="E32" s="5">
-        <f>'[1]Data - V2'!E31</f>
         <v>401785</v>
       </c>
       <c r="F32" s="6">
-        <f>'[1]Data - V2'!F31</f>
         <v>252118</v>
       </c>
       <c r="G32" s="7">
-        <f>'[1]Data - V2'!G31</f>
         <v>1447268128</v>
       </c>
     </row>
@@ -3608,23 +1734,18 @@
         <v>68</v>
       </c>
       <c r="C33" s="4">
-        <f>'[1]Data - V2'!C32</f>
         <v>1301366.75</v>
       </c>
       <c r="D33" s="6">
-        <f>'[1]Data - V2'!D32</f>
         <v>952690.08485782123</v>
       </c>
       <c r="E33" s="5">
-        <f>'[1]Data - V2'!E32</f>
         <v>208787</v>
       </c>
       <c r="F33" s="6">
-        <f>'[1]Data - V2'!F32</f>
         <v>128906</v>
       </c>
       <c r="G33" s="7">
-        <f>'[1]Data - V2'!G32</f>
         <v>1243969694</v>
       </c>
     </row>
@@ -3636,23 +1757,18 @@
         <v>70</v>
       </c>
       <c r="C34" s="4">
-        <f>'[1]Data - V2'!C33</f>
         <v>8661772</v>
       </c>
       <c r="D34" s="6">
-        <f>'[1]Data - V2'!D33</f>
         <v>5826286.8986740075</v>
       </c>
       <c r="E34" s="5">
-        <f>'[1]Data - V2'!E33</f>
         <v>1444299</v>
       </c>
       <c r="F34" s="6">
-        <f>'[1]Data - V2'!F33</f>
         <v>1089830</v>
       </c>
       <c r="G34" s="7">
-        <f>'[1]Data - V2'!G33</f>
         <v>9221716097</v>
       </c>
     </row>
@@ -3664,23 +1780,18 @@
         <v>72</v>
       </c>
       <c r="C35" s="4">
-        <f>'[1]Data - V2'!C34</f>
         <v>2026684.125</v>
       </c>
       <c r="D35" s="6">
-        <f>'[1]Data - V2'!D34</f>
         <v>995764.68444728933</v>
       </c>
       <c r="E35" s="5">
-        <f>'[1]Data - V2'!E34</f>
         <v>432285</v>
       </c>
       <c r="F35" s="6">
-        <f>'[1]Data - V2'!F34</f>
         <v>441880</v>
       </c>
       <c r="G35" s="7">
-        <f>'[1]Data - V2'!G34</f>
         <v>3286396184</v>
       </c>
     </row>
@@ -3692,23 +1803,18 @@
         <v>74</v>
       </c>
       <c r="C36" s="4">
-        <f>'[1]Data - V2'!C35</f>
         <v>19314646</v>
       </c>
       <c r="D36" s="6">
-        <f>'[1]Data - V2'!D35</f>
         <v>11286396.02544928</v>
       </c>
       <c r="E36" s="5">
-        <f>'[1]Data - V2'!E35</f>
         <v>6276701</v>
       </c>
       <c r="F36" s="6">
-        <f>'[1]Data - V2'!F35</f>
         <v>4263194</v>
       </c>
       <c r="G36" s="7">
-        <f>'[1]Data - V2'!G35</f>
         <v>51788041221</v>
       </c>
     </row>
@@ -3720,23 +1826,18 @@
         <v>76</v>
       </c>
       <c r="C37" s="4">
-        <f>'[1]Data - V2'!C36</f>
         <v>9376616</v>
       </c>
       <c r="D37" s="6">
-        <f>'[1]Data - V2'!D36</f>
         <v>5098422.231726639</v>
       </c>
       <c r="E37" s="5">
-        <f>'[1]Data - V2'!E36</f>
         <v>2088294</v>
       </c>
       <c r="F37" s="6">
-        <f>'[1]Data - V2'!F36</f>
         <v>1461915</v>
       </c>
       <c r="G37" s="7">
-        <f>'[1]Data - V2'!G36</f>
         <v>10211202177</v>
       </c>
     </row>
@@ -3748,23 +1849,18 @@
         <v>78</v>
       </c>
       <c r="C38" s="4">
-        <f>'[1]Data - V2'!C37</f>
         <v>654970.9375</v>
       </c>
       <c r="D38" s="6">
-        <f>'[1]Data - V2'!D37</f>
         <v>430014.71042376745</v>
       </c>
       <c r="E38" s="5">
-        <f>'[1]Data - V2'!E37</f>
         <v>96501</v>
       </c>
       <c r="F38" s="6">
-        <f>'[1]Data - V2'!F37</f>
         <v>61180</v>
       </c>
       <c r="G38" s="7">
-        <f>'[1]Data - V2'!G37</f>
         <v>713793830</v>
       </c>
     </row>
@@ -3776,23 +1872,18 @@
         <v>80</v>
       </c>
       <c r="C39" s="4">
-        <f>'[1]Data - V2'!C38</f>
         <v>11334251</v>
       </c>
       <c r="D39" s="6">
-        <f>'[1]Data - V2'!D38</f>
         <v>6406586.3920488432</v>
       </c>
       <c r="E39" s="5">
-        <f>'[1]Data - V2'!E38</f>
         <v>1817238</v>
       </c>
       <c r="F39" s="6">
-        <f>'[1]Data - V2'!F38</f>
         <v>1893717</v>
       </c>
       <c r="G39" s="7">
-        <f>'[1]Data - V2'!G38</f>
         <v>15405556893</v>
       </c>
     </row>
@@ -3804,23 +1895,18 @@
         <v>82</v>
       </c>
       <c r="C40" s="4">
-        <f>'[1]Data - V2'!C39</f>
         <v>3720317.5</v>
       </c>
       <c r="D40" s="6">
-        <f>'[1]Data - V2'!D39</f>
         <v>2043630.2145366694</v>
       </c>
       <c r="E40" s="5">
-        <f>'[1]Data - V2'!E39</f>
         <v>697232</v>
       </c>
       <c r="F40" s="6">
-        <f>'[1]Data - V2'!F39</f>
         <v>640504</v>
       </c>
       <c r="G40" s="7">
-        <f>'[1]Data - V2'!G39</f>
         <v>4230970590</v>
       </c>
     </row>
@@ -3832,23 +1918,18 @@
         <v>84</v>
       </c>
       <c r="C41" s="4">
-        <f>'[1]Data - V2'!C40</f>
         <v>3816614.25</v>
       </c>
       <c r="D41" s="6">
-        <f>'[1]Data - V2'!D40</f>
         <v>2197973.0566444425</v>
       </c>
       <c r="E41" s="5">
-        <f>'[1]Data - V2'!E40</f>
         <v>570635</v>
       </c>
       <c r="F41" s="6">
-        <f>'[1]Data - V2'!F40</f>
         <v>475351</v>
       </c>
       <c r="G41" s="7">
-        <f>'[1]Data - V2'!G40</f>
         <v>4309859291</v>
       </c>
     </row>
@@ -3860,23 +1941,18 @@
         <v>86</v>
       </c>
       <c r="C42" s="4">
-        <f>'[1]Data - V2'!C41</f>
         <v>12584384</v>
       </c>
       <c r="D42" s="6">
-        <f>'[1]Data - V2'!D41</f>
         <v>7625439.460720052</v>
       </c>
       <c r="E42" s="5">
-        <f>'[1]Data - V2'!E41</f>
         <v>2265032</v>
       </c>
       <c r="F42" s="6">
-        <f>'[1]Data - V2'!F41</f>
         <v>2009918</v>
       </c>
       <c r="G42" s="7">
-        <f>'[1]Data - V2'!G41</f>
         <v>19772631841</v>
       </c>
     </row>
@@ -3888,23 +1964,18 @@
         <v>88</v>
       </c>
       <c r="C43" s="4">
-        <f>'[1]Data - V2'!C42</f>
         <v>1042956.1875</v>
       </c>
       <c r="D43" s="6">
-        <f>'[1]Data - V2'!D42</f>
         <v>642217.61108881235</v>
       </c>
       <c r="E43" s="5">
-        <f>'[1]Data - V2'!E42</f>
         <v>277071</v>
       </c>
       <c r="F43" s="6">
-        <f>'[1]Data - V2'!F42</f>
         <v>164357</v>
       </c>
       <c r="G43" s="7">
-        <f>'[1]Data - V2'!G42</f>
         <v>1961071462</v>
       </c>
     </row>
@@ -3916,23 +1987,18 @@
         <v>90</v>
       </c>
       <c r="C44" s="4">
-        <f>'[1]Data - V2'!C43</f>
         <v>4569375.5</v>
       </c>
       <c r="D44" s="6">
-        <f>'[1]Data - V2'!D43</f>
         <v>2297842.459383483</v>
       </c>
       <c r="E44" s="5">
-        <f>'[1]Data - V2'!E43</f>
         <v>904614</v>
       </c>
       <c r="F44" s="6">
-        <f>'[1]Data - V2'!F43</f>
         <v>743898</v>
       </c>
       <c r="G44" s="7">
-        <f>'[1]Data - V2'!G43</f>
         <v>4636071692</v>
       </c>
     </row>
@@ -3944,23 +2010,18 @@
         <v>92</v>
       </c>
       <c r="C45" s="4">
-        <f>'[1]Data - V2'!C44</f>
         <v>808996.875</v>
       </c>
       <c r="D45" s="6">
-        <f>'[1]Data - V2'!D44</f>
         <v>462029.7754564283</v>
       </c>
       <c r="E45" s="5">
-        <f>'[1]Data - V2'!E44</f>
         <v>106273</v>
       </c>
       <c r="F45" s="6">
-        <f>'[1]Data - V2'!F44</f>
         <v>105289</v>
       </c>
       <c r="G45" s="7">
-        <f>'[1]Data - V2'!G44</f>
         <v>751418305</v>
       </c>
     </row>
@@ -3972,23 +2033,18 @@
         <v>94</v>
       </c>
       <c r="C46" s="4">
-        <f>'[1]Data - V2'!C45</f>
         <v>6323933.5</v>
       </c>
       <c r="D46" s="6">
-        <f>'[1]Data - V2'!D45</f>
         <v>3215312.1324729919</v>
       </c>
       <c r="E46" s="5">
-        <f>'[1]Data - V2'!E45</f>
         <v>1436971</v>
       </c>
       <c r="F46" s="6">
-        <f>'[1]Data - V2'!F45</f>
         <v>1221298</v>
       </c>
       <c r="G46" s="7">
-        <f>'[1]Data - V2'!G45</f>
         <v>7956732957</v>
       </c>
     </row>
@@ -4000,23 +2056,18 @@
         <v>96</v>
       </c>
       <c r="C47" s="4">
-        <f>'[1]Data - V2'!C46</f>
         <v>25373166</v>
       </c>
       <c r="D47" s="6">
-        <f>'[1]Data - V2'!D46</f>
         <v>13106161.257021897</v>
       </c>
       <c r="E47" s="5">
-        <f>'[1]Data - V2'!E46</f>
         <v>4769534</v>
       </c>
       <c r="F47" s="6">
-        <f>'[1]Data - V2'!F46</f>
         <v>3743707</v>
       </c>
       <c r="G47" s="7">
-        <f>'[1]Data - V2'!G46</f>
         <v>27011324822</v>
       </c>
     </row>
@@ -4028,23 +2079,18 @@
         <v>98</v>
       </c>
       <c r="C48" s="4">
-        <f>'[1]Data - V2'!C47</f>
         <v>2821433.75</v>
       </c>
       <c r="D48" s="6">
-        <f>'[1]Data - V2'!D47</f>
         <v>1635295.925413609</v>
       </c>
       <c r="E48" s="5">
-        <f>'[1]Data - V2'!E47</f>
         <v>497356</v>
       </c>
       <c r="F48" s="6">
-        <f>'[1]Data - V2'!F47</f>
         <v>260186</v>
       </c>
       <c r="G48" s="7">
-        <f>'[1]Data - V2'!G47</f>
         <v>1794587075</v>
       </c>
     </row>
@@ -4056,23 +2102,18 @@
         <v>100</v>
       </c>
       <c r="C49" s="4">
-        <f>'[1]Data - V2'!C48</f>
         <v>619353.375</v>
       </c>
       <c r="D49" s="6">
-        <f>'[1]Data - V2'!D48</f>
         <v>395740.63415384281</v>
       </c>
       <c r="E49" s="5">
-        <f>'[1]Data - V2'!E48</f>
         <v>182296</v>
       </c>
       <c r="F49" s="6">
-        <f>'[1]Data - V2'!F48</f>
         <v>132449</v>
       </c>
       <c r="G49" s="7">
-        <f>'[1]Data - V2'!G48</f>
         <v>1258455394</v>
       </c>
     </row>
@@ -4084,23 +2125,18 @@
         <v>102</v>
       </c>
       <c r="C50" s="4">
-        <f>'[1]Data - V2'!C49</f>
         <v>7873385.5</v>
       </c>
       <c r="D50" s="6">
-        <f>'[1]Data - V2'!D49</f>
         <v>5164473.982846735</v>
       </c>
       <c r="E50" s="5">
-        <f>'[1]Data - V2'!E49</f>
         <v>982150</v>
       </c>
       <c r="F50" s="6">
-        <f>'[1]Data - V2'!F49</f>
         <v>852387</v>
       </c>
       <c r="G50" s="7">
-        <f>'[1]Data - V2'!G49</f>
         <v>6672804559</v>
       </c>
     </row>
@@ -4112,23 +2148,18 @@
         <v>104</v>
       </c>
       <c r="C51" s="4">
-        <f>'[1]Data - V2'!C50</f>
         <v>6770326</v>
       </c>
       <c r="D51" s="6">
-        <f>'[1]Data - V2'!D50</f>
         <v>4078566.369532112</v>
       </c>
       <c r="E51" s="5">
-        <f>'[1]Data - V2'!E50</f>
         <v>1442682</v>
       </c>
       <c r="F51" s="6">
-        <f>'[1]Data - V2'!F50</f>
         <v>992662</v>
       </c>
       <c r="G51" s="7">
-        <f>'[1]Data - V2'!G50</f>
         <v>6975052001</v>
       </c>
     </row>
@@ -4140,23 +2171,18 @@
         <v>106</v>
       </c>
       <c r="C52" s="4">
-        <f>'[1]Data - V2'!C51</f>
         <v>1816362</v>
       </c>
       <c r="D52" s="6">
-        <f>'[1]Data - V2'!D51</f>
         <v>963587.93747329677</v>
       </c>
       <c r="E52" s="5">
-        <f>'[1]Data - V2'!E51</f>
         <v>508769</v>
       </c>
       <c r="F52" s="6">
-        <f>'[1]Data - V2'!F51</f>
         <v>319608</v>
       </c>
       <c r="G52" s="7">
-        <f>'[1]Data - V2'!G51</f>
         <v>2769269700</v>
       </c>
     </row>
@@ -4168,23 +2194,18 @@
         <v>108</v>
       </c>
       <c r="C53" s="4">
-        <f>'[1]Data - V2'!C52</f>
         <v>5648114</v>
       </c>
       <c r="D53" s="6">
-        <f>'[1]Data - V2'!D52</f>
         <v>3536887.977611063</v>
       </c>
       <c r="E53" s="5">
-        <f>'[1]Data - V2'!E52</f>
         <v>1099381</v>
       </c>
       <c r="F53" s="6">
-        <f>'[1]Data - V2'!F52</f>
         <v>1012757</v>
       </c>
       <c r="G53" s="7">
-        <f>'[1]Data - V2'!G52</f>
         <v>7031419790</v>
       </c>
     </row>
@@ -4196,23 +2217,18 @@
         <v>110</v>
       </c>
       <c r="C54" s="4">
-        <f>'[1]Data - V2'!C53</f>
         <v>549871.625</v>
       </c>
       <c r="D54" s="6">
-        <f>'[1]Data - V2'!D53</f>
         <v>338841.74967312842</v>
       </c>
       <c r="E54" s="5">
-        <f>'[1]Data - V2'!E53</f>
         <v>62953</v>
       </c>
       <c r="F54" s="6">
-        <f>'[1]Data - V2'!F53</f>
         <v>66306</v>
       </c>
       <c r="G54" s="7">
-        <f>'[1]Data - V2'!G53</f>
         <v>544228281</v>
       </c>
     </row>
@@ -4332,16 +2348,16 @@
     <mergeCell ref="A55:G66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4397,23 +2413,18 @@
         <v>8</v>
       </c>
       <c r="C3" s="9">
-        <f>'[1]Data - V3'!C2</f>
         <v>307468461.4375</v>
       </c>
       <c r="D3" s="9">
-        <f>'[1]Data - V3'!D2</f>
         <v>175385922.9025884</v>
       </c>
       <c r="E3" s="9">
-        <f>'[1]Data - V3'!E2</f>
         <v>63881760</v>
       </c>
       <c r="F3" s="9">
-        <f>'[1]Data - V3'!F2</f>
         <v>50148749</v>
       </c>
       <c r="G3" s="9">
-        <f>'[1]Data - V3'!G2</f>
         <v>334695796448</v>
       </c>
     </row>
@@ -4425,23 +2436,18 @@
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <f>'[1]Data - V3'!C3</f>
         <v>4718503.5</v>
       </c>
       <c r="D4" s="6">
-        <f>'[1]Data - V3'!D3</f>
         <v>2533870.9437217722</v>
       </c>
       <c r="E4" s="5">
-        <f>'[1]Data - V3'!E3</f>
         <v>710762</v>
       </c>
       <c r="F4" s="6">
-        <f>'[1]Data - V3'!F3</f>
         <v>727712</v>
       </c>
       <c r="G4" s="7">
-        <f>'[1]Data - V3'!G3</f>
         <v>3432665023</v>
       </c>
     </row>
@@ -4453,23 +2459,18 @@
         <v>12</v>
       </c>
       <c r="C5" s="4">
-        <f>'[1]Data - V3'!C4</f>
         <v>703106.375</v>
       </c>
       <c r="D5" s="6">
-        <f>'[1]Data - V3'!D4</f>
         <v>446701.34039276832</v>
       </c>
       <c r="E5" s="5">
-        <f>'[1]Data - V3'!E4</f>
         <v>134345</v>
       </c>
       <c r="F5" s="6">
-        <f>'[1]Data - V3'!F4</f>
         <v>110132</v>
       </c>
       <c r="G5" s="7">
-        <f>'[1]Data - V3'!G4</f>
         <v>1187208628</v>
       </c>
     </row>
@@ -4481,23 +2482,18 @@
         <v>14</v>
       </c>
       <c r="C6" s="4">
-        <f>'[1]Data - V3'!C5</f>
         <v>6632165</v>
       </c>
       <c r="D6" s="6">
-        <f>'[1]Data - V3'!D5</f>
         <v>3517099.7731132526</v>
       </c>
       <c r="E6" s="5">
-        <f>'[1]Data - V3'!E5</f>
         <v>1665493</v>
       </c>
       <c r="F6" s="6">
-        <f>'[1]Data - V3'!F5</f>
         <v>1149975</v>
       </c>
       <c r="G6" s="7">
-        <f>'[1]Data - V3'!G5</f>
         <v>8842790551</v>
       </c>
     </row>
@@ -4509,23 +2505,18 @@
         <v>16</v>
       </c>
       <c r="C7" s="4">
-        <f>'[1]Data - V3'!C6</f>
         <v>2894530.25</v>
       </c>
       <c r="D7" s="6">
-        <f>'[1]Data - V3'!D6</f>
         <v>1411911.253579139</v>
       </c>
       <c r="E7" s="5">
-        <f>'[1]Data - V3'!E6</f>
         <v>677564</v>
       </c>
       <c r="F7" s="6">
-        <f>'[1]Data - V3'!F6</f>
         <v>510363</v>
       </c>
       <c r="G7" s="7">
-        <f>'[1]Data - V3'!G6</f>
         <v>2994938047</v>
       </c>
     </row>
@@ -4537,23 +2528,18 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <f>'[1]Data - V3'!C7</f>
         <v>37428844</v>
       </c>
       <c r="D8" s="6">
-        <f>'[1]Data - V3'!D7</f>
         <v>20075759.894365348</v>
       </c>
       <c r="E8" s="5">
-        <f>'[1]Data - V3'!E7</f>
         <v>9121390</v>
       </c>
       <c r="F8" s="6">
-        <f>'[1]Data - V3'!F7</f>
         <v>7178279</v>
       </c>
       <c r="G8" s="7">
-        <f>'[1]Data - V3'!G7</f>
         <v>47500326506</v>
       </c>
     </row>
@@ -4565,23 +2551,18 @@
         <v>20</v>
       </c>
       <c r="C9" s="4">
-        <f>'[1]Data - V3'!C8</f>
         <v>5038697.5</v>
       </c>
       <c r="D9" s="6">
-        <f>'[1]Data - V3'!D8</f>
         <v>3274164.3195550493</v>
       </c>
       <c r="E9" s="5">
-        <f>'[1]Data - V3'!E8</f>
         <v>623907</v>
       </c>
       <c r="F9" s="6">
-        <f>'[1]Data - V3'!F8</f>
         <v>504155</v>
       </c>
       <c r="G9" s="7">
-        <f>'[1]Data - V3'!G8</f>
         <v>3617183552</v>
       </c>
     </row>
@@ -4593,23 +2574,18 @@
         <v>22</v>
       </c>
       <c r="C10" s="4">
-        <f>'[1]Data - V3'!C9</f>
         <v>3507134.25</v>
       </c>
       <c r="D10" s="6">
-        <f>'[1]Data - V3'!D9</f>
         <v>2466601.6219564704</v>
       </c>
       <c r="E10" s="5">
-        <f>'[1]Data - V3'!E9</f>
         <v>714924</v>
       </c>
       <c r="F10" s="6">
-        <f>'[1]Data - V3'!F9</f>
         <v>538438</v>
       </c>
       <c r="G10" s="7">
-        <f>'[1]Data - V3'!G9</f>
         <v>4366256663</v>
       </c>
     </row>
@@ -4621,23 +2597,18 @@
         <v>24</v>
       </c>
       <c r="C11" s="4">
-        <f>'[1]Data - V3'!C10</f>
         <v>891979.4375</v>
       </c>
       <c r="D11" s="6">
-        <f>'[1]Data - V3'!D10</f>
         <v>543190.43085098267</v>
       </c>
       <c r="E11" s="5">
-        <f>'[1]Data - V3'!E10</f>
         <v>155640</v>
       </c>
       <c r="F11" s="6">
-        <f>'[1]Data - V3'!F10</f>
         <v>161973</v>
       </c>
       <c r="G11" s="7">
-        <f>'[1]Data - V3'!G10</f>
         <v>1234022281</v>
       </c>
     </row>
@@ -4649,23 +2620,18 @@
         <v>26</v>
       </c>
       <c r="C12" s="4">
-        <f>'[1]Data - V3'!C11</f>
         <v>613821.5</v>
       </c>
       <c r="D12" s="6">
-        <f>'[1]Data - V3'!D11</f>
         <v>359409.68931454385</v>
       </c>
       <c r="E12" s="5">
-        <f>'[1]Data - V3'!E11</f>
         <v>202541</v>
       </c>
       <c r="F12" s="6">
-        <f>'[1]Data - V3'!F11</f>
         <v>159737</v>
       </c>
       <c r="G12" s="7">
-        <f>'[1]Data - V3'!G11</f>
         <v>1743040706</v>
       </c>
     </row>
@@ -4677,23 +2643,18 @@
         <v>28</v>
       </c>
       <c r="C13" s="4">
-        <f>'[1]Data - V3'!C12</f>
         <v>18771256</v>
       </c>
       <c r="D13" s="6">
-        <f>'[1]Data - V3'!D12</f>
         <v>10337392.151321409</v>
       </c>
       <c r="E13" s="5">
-        <f>'[1]Data - V3'!E12</f>
         <v>3261098</v>
       </c>
       <c r="F13" s="6">
-        <f>'[1]Data - V3'!F12</f>
         <v>2792302</v>
       </c>
       <c r="G13" s="7">
-        <f>'[1]Data - V3'!G12</f>
         <v>14057634069</v>
       </c>
     </row>
@@ -4705,23 +2666,18 @@
         <v>30</v>
       </c>
       <c r="C14" s="4">
-        <f>'[1]Data - V3'!C13</f>
         <v>9757314</v>
       </c>
       <c r="D14" s="6">
-        <f>'[1]Data - V3'!D13</f>
         <v>5151394.4813075075</v>
       </c>
       <c r="E14" s="5">
-        <f>'[1]Data - V3'!E13</f>
         <v>1889672</v>
       </c>
       <c r="F14" s="6">
-        <f>'[1]Data - V3'!F13</f>
         <v>1495836</v>
       </c>
       <c r="G14" s="7">
-        <f>'[1]Data - V3'!G13</f>
         <v>6507546165</v>
       </c>
     </row>
@@ -4733,23 +2689,18 @@
         <v>32</v>
       </c>
       <c r="C15" s="4">
-        <f>'[1]Data - V3'!C14</f>
         <v>1298291.25</v>
       </c>
       <c r="D15" s="6">
-        <f>'[1]Data - V3'!D14</f>
         <v>788617.19088041841</v>
       </c>
       <c r="E15" s="5">
-        <f>'[1]Data - V3'!E14</f>
         <v>326723</v>
       </c>
       <c r="F15" s="6">
-        <f>'[1]Data - V3'!F14</f>
         <v>244117</v>
       </c>
       <c r="G15" s="7">
-        <f>'[1]Data - V3'!G14</f>
         <v>1534768752</v>
       </c>
     </row>
@@ -4761,23 +2712,18 @@
         <v>34</v>
       </c>
       <c r="C16" s="4">
-        <f>'[1]Data - V3'!C15</f>
         <v>1552785.125</v>
       </c>
       <c r="D16" s="6">
-        <f>'[1]Data - V3'!D15</f>
         <v>775891.04042911518</v>
       </c>
       <c r="E16" s="5">
-        <f>'[1]Data - V3'!E15</f>
         <v>239475</v>
       </c>
       <c r="F16" s="6">
-        <f>'[1]Data - V3'!F15</f>
         <v>181129</v>
       </c>
       <c r="G16" s="7">
-        <f>'[1]Data - V3'!G15</f>
         <v>1258873910</v>
       </c>
     </row>
@@ -4789,23 +2735,18 @@
         <v>36</v>
       </c>
       <c r="C17" s="4">
-        <f>'[1]Data - V3'!C16</f>
         <v>12805608</v>
       </c>
       <c r="D17" s="6">
-        <f>'[1]Data - V3'!D16</f>
         <v>7362620.979228016</v>
       </c>
       <c r="E17" s="5">
-        <f>'[1]Data - V3'!E16</f>
         <v>2884845</v>
       </c>
       <c r="F17" s="6">
-        <f>'[1]Data - V3'!F16</f>
         <v>2471471</v>
       </c>
       <c r="G17" s="7">
-        <f>'[1]Data - V3'!G16</f>
         <v>10903885549</v>
       </c>
     </row>
@@ -4817,23 +2758,18 @@
         <v>38</v>
       </c>
       <c r="C18" s="4">
-        <f>'[1]Data - V3'!C17</f>
         <v>6356050.5</v>
       </c>
       <c r="D18" s="6">
-        <f>'[1]Data - V3'!D17</f>
         <v>3543807.136253831</v>
       </c>
       <c r="E18" s="5">
-        <f>'[1]Data - V3'!E17</f>
         <v>1035684</v>
       </c>
       <c r="F18" s="6">
-        <f>'[1]Data - V3'!F17</f>
         <v>942361</v>
       </c>
       <c r="G18" s="7">
-        <f>'[1]Data - V3'!G17</f>
         <v>4942611496</v>
       </c>
     </row>
@@ -4845,23 +2781,18 @@
         <v>40</v>
       </c>
       <c r="C19" s="4">
-        <f>'[1]Data - V3'!C18</f>
         <v>2997905</v>
       </c>
       <c r="D19" s="6">
-        <f>'[1]Data - V3'!D18</f>
         <v>1834077.71282458</v>
       </c>
       <c r="E19" s="5">
-        <f>'[1]Data - V3'!E18</f>
         <v>570619</v>
       </c>
       <c r="F19" s="6">
-        <f>'[1]Data - V3'!F18</f>
         <v>434825</v>
       </c>
       <c r="G19" s="7">
-        <f>'[1]Data - V3'!G18</f>
         <v>2430643204</v>
       </c>
     </row>
@@ -4873,23 +2804,18 @@
         <v>42</v>
       </c>
       <c r="C20" s="4">
-        <f>'[1]Data - V3'!C19</f>
         <v>2785742.25</v>
       </c>
       <c r="D20" s="6">
-        <f>'[1]Data - V3'!D19</f>
         <v>1570344.8751740453</v>
       </c>
       <c r="E20" s="5">
-        <f>'[1]Data - V3'!E19</f>
         <v>541866</v>
       </c>
       <c r="F20" s="6">
-        <f>'[1]Data - V3'!F19</f>
         <v>320310</v>
       </c>
       <c r="G20" s="7">
-        <f>'[1]Data - V3'!G19</f>
         <v>2141124625</v>
       </c>
     </row>
@@ -4901,23 +2827,18 @@
         <v>44</v>
       </c>
       <c r="C21" s="4">
-        <f>'[1]Data - V3'!C20</f>
         <v>4301251</v>
       </c>
       <c r="D21" s="6">
-        <f>'[1]Data - V3'!D20</f>
         <v>2176437.2411308265</v>
       </c>
       <c r="E21" s="5">
-        <f>'[1]Data - V3'!E20</f>
         <v>913888</v>
       </c>
       <c r="F21" s="6">
-        <f>'[1]Data - V3'!F20</f>
         <v>723846</v>
       </c>
       <c r="G21" s="7">
-        <f>'[1]Data - V3'!G20</f>
         <v>4630628689</v>
       </c>
     </row>
@@ -4929,23 +2850,18 @@
         <v>46</v>
       </c>
       <c r="C22" s="4">
-        <f>'[1]Data - V3'!C21</f>
         <v>4468767</v>
       </c>
       <c r="D22" s="6">
-        <f>'[1]Data - V3'!D21</f>
         <v>2249887.944792273</v>
       </c>
       <c r="E22" s="5">
-        <f>'[1]Data - V3'!E21</f>
         <v>1166021</v>
       </c>
       <c r="F22" s="6">
-        <f>'[1]Data - V3'!F21</f>
         <v>980581</v>
       </c>
       <c r="G22" s="7">
-        <f>'[1]Data - V3'!G21</f>
         <v>4986971289</v>
       </c>
     </row>
@@ -4957,23 +2873,18 @@
         <v>48</v>
       </c>
       <c r="C23" s="4">
-        <f>'[1]Data - V3'!C22</f>
         <v>1307175</v>
       </c>
       <c r="D23" s="6">
-        <f>'[1]Data - V3'!D22</f>
         <v>776243.51776218391</v>
       </c>
       <c r="E23" s="5">
-        <f>'[1]Data - V3'!E22</f>
         <v>362063</v>
       </c>
       <c r="F23" s="6">
-        <f>'[1]Data - V3'!F22</f>
         <v>270558</v>
       </c>
       <c r="G23" s="7">
-        <f>'[1]Data - V3'!G22</f>
         <v>1971074802</v>
       </c>
     </row>
@@ -4985,23 +2896,18 @@
         <v>50</v>
       </c>
       <c r="C24" s="4">
-        <f>'[1]Data - V3'!C23</f>
         <v>5769205</v>
       </c>
       <c r="D24" s="6">
-        <f>'[1]Data - V3'!D23</f>
         <v>3973154.1688084607</v>
       </c>
       <c r="E24" s="5">
-        <f>'[1]Data - V3'!E23</f>
         <v>928906</v>
       </c>
       <c r="F24" s="6">
-        <f>'[1]Data - V3'!F23</f>
         <v>763998</v>
       </c>
       <c r="G24" s="7">
-        <f>'[1]Data - V3'!G23</f>
         <v>6319566449</v>
       </c>
     </row>
@@ -5013,23 +2919,18 @@
         <v>52</v>
       </c>
       <c r="C25" s="4">
-        <f>'[1]Data - V3'!C24</f>
         <v>6569638.5</v>
       </c>
       <c r="D25" s="6">
-        <f>'[1]Data - V3'!D24</f>
         <v>4443357.6373343449</v>
       </c>
       <c r="E25" s="5">
-        <f>'[1]Data - V3'!E24</f>
         <v>1622820</v>
       </c>
       <c r="F25" s="6">
-        <f>'[1]Data - V3'!F24</f>
         <v>1046563</v>
       </c>
       <c r="G25" s="7">
-        <f>'[1]Data - V3'!G24</f>
         <v>11452892102</v>
       </c>
     </row>
@@ -5041,23 +2942,18 @@
         <v>54</v>
       </c>
       <c r="C26" s="4">
-        <f>'[1]Data - V3'!C25</f>
         <v>9737212</v>
       </c>
       <c r="D26" s="6">
-        <f>'[1]Data - V3'!D25</f>
         <v>5639716.8463373221</v>
       </c>
       <c r="E26" s="5">
-        <f>'[1]Data - V3'!E25</f>
         <v>1997339</v>
       </c>
       <c r="F26" s="6">
-        <f>'[1]Data - V3'!F25</f>
         <v>1724772</v>
       </c>
       <c r="G26" s="7">
-        <f>'[1]Data - V3'!G25</f>
         <v>10178704142</v>
       </c>
     </row>
@@ -5069,23 +2965,18 @@
         <v>56</v>
       </c>
       <c r="C27" s="4">
-        <f>'[1]Data - V3'!C26</f>
         <v>5235715.5</v>
       </c>
       <c r="D27" s="6">
-        <f>'[1]Data - V3'!D26</f>
         <v>3462750.0085201222</v>
       </c>
       <c r="E27" s="5">
-        <f>'[1]Data - V3'!E26</f>
         <v>1395952</v>
       </c>
       <c r="F27" s="6">
-        <f>'[1]Data - V3'!F26</f>
         <v>666928</v>
       </c>
       <c r="G27" s="7">
-        <f>'[1]Data - V3'!G26</f>
         <v>7340163422</v>
       </c>
     </row>
@@ -5097,23 +2988,18 @@
         <v>58</v>
       </c>
       <c r="C28" s="4">
-        <f>'[1]Data - V3'!C27</f>
         <v>2931505.75</v>
       </c>
       <c r="D28" s="6">
-        <f>'[1]Data - V3'!D27</f>
         <v>1441896.1287727361</v>
       </c>
       <c r="E28" s="5">
-        <f>'[1]Data - V3'!E27</f>
         <v>662450</v>
       </c>
       <c r="F28" s="6">
-        <f>'[1]Data - V3'!F27</f>
         <v>556334</v>
       </c>
       <c r="G28" s="7">
-        <f>'[1]Data - V3'!G27</f>
         <v>3151798488</v>
       </c>
     </row>
@@ -5125,23 +3011,18 @@
         <v>60</v>
       </c>
       <c r="C29" s="4">
-        <f>'[1]Data - V3'!C28</f>
         <v>5938243</v>
       </c>
       <c r="D29" s="6">
-        <f>'[1]Data - V3'!D28</f>
         <v>3462866.6262707692</v>
       </c>
       <c r="E29" s="5">
-        <f>'[1]Data - V3'!E28</f>
         <v>974810</v>
       </c>
       <c r="F29" s="6">
-        <f>'[1]Data - V3'!F28</f>
         <v>843371</v>
       </c>
       <c r="G29" s="7">
-        <f>'[1]Data - V3'!G28</f>
         <v>6227035327</v>
       </c>
     </row>
@@ -5153,23 +3034,18 @@
         <v>62</v>
       </c>
       <c r="C30" s="4">
-        <f>'[1]Data - V3'!C29</f>
         <v>978695.25</v>
       </c>
       <c r="D30" s="6">
-        <f>'[1]Data - V3'!D29</f>
         <v>501078.13454055809</v>
       </c>
       <c r="E30" s="5">
-        <f>'[1]Data - V3'!E29</f>
         <v>214967</v>
       </c>
       <c r="F30" s="6">
-        <f>'[1]Data - V3'!F29</f>
         <v>99572</v>
       </c>
       <c r="G30" s="7">
-        <f>'[1]Data - V3'!G29</f>
         <v>772818689</v>
       </c>
     </row>
@@ -5181,23 +3057,18 @@
         <v>64</v>
       </c>
       <c r="C31" s="4">
-        <f>'[1]Data - V3'!C30</f>
         <v>1806568.625</v>
       </c>
       <c r="D31" s="6">
-        <f>'[1]Data - V3'!D30</f>
         <v>1115204.4802653787</v>
       </c>
       <c r="E31" s="5">
-        <f>'[1]Data - V3'!E30</f>
         <v>317231</v>
       </c>
       <c r="F31" s="6">
-        <f>'[1]Data - V3'!F30</f>
         <v>215718</v>
       </c>
       <c r="G31" s="7">
-        <f>'[1]Data - V3'!G30</f>
         <v>1257566338</v>
       </c>
     </row>
@@ -5209,23 +3080,18 @@
         <v>66</v>
       </c>
       <c r="C32" s="4">
-        <f>'[1]Data - V3'!C31</f>
         <v>2661854</v>
       </c>
       <c r="D32" s="6">
-        <f>'[1]Data - V3'!D31</f>
         <v>1450313.7621289482</v>
       </c>
       <c r="E32" s="5">
-        <f>'[1]Data - V3'!E31</f>
         <v>401785</v>
       </c>
       <c r="F32" s="6">
-        <f>'[1]Data - V3'!F31</f>
         <v>252118</v>
       </c>
       <c r="G32" s="7">
-        <f>'[1]Data - V3'!G31</f>
         <v>1257892128</v>
       </c>
     </row>
@@ -5237,23 +3103,18 @@
         <v>68</v>
       </c>
       <c r="C33" s="4">
-        <f>'[1]Data - V3'!C32</f>
         <v>1301366.75</v>
       </c>
       <c r="D33" s="6">
-        <f>'[1]Data - V3'!D32</f>
         <v>952690.08485782123</v>
       </c>
       <c r="E33" s="5">
-        <f>'[1]Data - V3'!E32</f>
         <v>208787</v>
       </c>
       <c r="F33" s="6">
-        <f>'[1]Data - V3'!F32</f>
         <v>128906</v>
       </c>
       <c r="G33" s="7">
-        <f>'[1]Data - V3'!G32</f>
         <v>927638694</v>
       </c>
     </row>
@@ -5265,23 +3126,18 @@
         <v>70</v>
       </c>
       <c r="C34" s="4">
-        <f>'[1]Data - V3'!C33</f>
         <v>8661772</v>
       </c>
       <c r="D34" s="6">
-        <f>'[1]Data - V3'!D33</f>
         <v>5826286.8986740075</v>
       </c>
       <c r="E34" s="5">
-        <f>'[1]Data - V3'!E33</f>
         <v>1444299</v>
       </c>
       <c r="F34" s="6">
-        <f>'[1]Data - V3'!F33</f>
         <v>1089830</v>
       </c>
       <c r="G34" s="7">
-        <f>'[1]Data - V3'!G33</f>
         <v>6679200097</v>
       </c>
     </row>
@@ -5293,23 +3149,18 @@
         <v>72</v>
       </c>
       <c r="C35" s="4">
-        <f>'[1]Data - V3'!C34</f>
         <v>2026684.125</v>
       </c>
       <c r="D35" s="6">
-        <f>'[1]Data - V3'!D34</f>
         <v>995764.68444728933</v>
       </c>
       <c r="E35" s="5">
-        <f>'[1]Data - V3'!E34</f>
         <v>432285</v>
       </c>
       <c r="F35" s="6">
-        <f>'[1]Data - V3'!F34</f>
         <v>441880</v>
       </c>
       <c r="G35" s="7">
-        <f>'[1]Data - V3'!G34</f>
         <v>3257860184</v>
       </c>
     </row>
@@ -5321,23 +3172,18 @@
         <v>74</v>
       </c>
       <c r="C36" s="4">
-        <f>'[1]Data - V3'!C35</f>
         <v>19314646</v>
       </c>
       <c r="D36" s="6">
-        <f>'[1]Data - V3'!D35</f>
         <v>11286396.02544928</v>
       </c>
       <c r="E36" s="5">
-        <f>'[1]Data - V3'!E35</f>
         <v>6276701</v>
       </c>
       <c r="F36" s="6">
-        <f>'[1]Data - V3'!F35</f>
         <v>4263194</v>
       </c>
       <c r="G36" s="7">
-        <f>'[1]Data - V3'!G35</f>
         <v>40702563221</v>
       </c>
     </row>
@@ -5349,23 +3195,18 @@
         <v>76</v>
       </c>
       <c r="C37" s="4">
-        <f>'[1]Data - V3'!C36</f>
         <v>9376616</v>
       </c>
       <c r="D37" s="6">
-        <f>'[1]Data - V3'!D36</f>
         <v>5098422.231726639</v>
       </c>
       <c r="E37" s="5">
-        <f>'[1]Data - V3'!E36</f>
         <v>2088294</v>
       </c>
       <c r="F37" s="6">
-        <f>'[1]Data - V3'!F36</f>
         <v>1461915</v>
       </c>
       <c r="G37" s="7">
-        <f>'[1]Data - V3'!G36</f>
         <v>8511184177</v>
       </c>
     </row>
@@ -5377,23 +3218,18 @@
         <v>78</v>
       </c>
       <c r="C38" s="4">
-        <f>'[1]Data - V3'!C37</f>
         <v>654970.9375</v>
       </c>
       <c r="D38" s="6">
-        <f>'[1]Data - V3'!D37</f>
         <v>430014.71042376745</v>
       </c>
       <c r="E38" s="5">
-        <f>'[1]Data - V3'!E37</f>
         <v>96501</v>
       </c>
       <c r="F38" s="6">
-        <f>'[1]Data - V3'!F37</f>
         <v>61180</v>
       </c>
       <c r="G38" s="7">
-        <f>'[1]Data - V3'!G37</f>
         <v>419506830</v>
       </c>
     </row>
@@ -5405,23 +3241,18 @@
         <v>80</v>
       </c>
       <c r="C39" s="4">
-        <f>'[1]Data - V3'!C38</f>
         <v>11334251</v>
       </c>
       <c r="D39" s="6">
-        <f>'[1]Data - V3'!D38</f>
         <v>6406586.3920488432</v>
       </c>
       <c r="E39" s="5">
-        <f>'[1]Data - V3'!E38</f>
         <v>1817238</v>
       </c>
       <c r="F39" s="6">
-        <f>'[1]Data - V3'!F38</f>
         <v>1893717</v>
       </c>
       <c r="G39" s="7">
-        <f>'[1]Data - V3'!G38</f>
         <v>12065546893</v>
       </c>
     </row>
@@ -5433,23 +3264,18 @@
         <v>82</v>
       </c>
       <c r="C40" s="4">
-        <f>'[1]Data - V3'!C39</f>
         <v>3720317.5</v>
       </c>
       <c r="D40" s="6">
-        <f>'[1]Data - V3'!D39</f>
         <v>2043630.2145366694</v>
       </c>
       <c r="E40" s="5">
-        <f>'[1]Data - V3'!E39</f>
         <v>697232</v>
       </c>
       <c r="F40" s="6">
-        <f>'[1]Data - V3'!F39</f>
         <v>640504</v>
       </c>
       <c r="G40" s="7">
-        <f>'[1]Data - V3'!G39</f>
         <v>3607692590</v>
       </c>
     </row>
@@ -5461,23 +3287,18 @@
         <v>84</v>
       </c>
       <c r="C41" s="4">
-        <f>'[1]Data - V3'!C40</f>
         <v>3816614.25</v>
       </c>
       <c r="D41" s="6">
-        <f>'[1]Data - V3'!D40</f>
         <v>2197973.0566444425</v>
       </c>
       <c r="E41" s="5">
-        <f>'[1]Data - V3'!E40</f>
         <v>570635</v>
       </c>
       <c r="F41" s="6">
-        <f>'[1]Data - V3'!F40</f>
         <v>475351</v>
       </c>
       <c r="G41" s="7">
-        <f>'[1]Data - V3'!G40</f>
         <v>3964603291</v>
       </c>
     </row>
@@ -5489,23 +3310,18 @@
         <v>86</v>
       </c>
       <c r="C42" s="4">
-        <f>'[1]Data - V3'!C41</f>
         <v>12584384</v>
       </c>
       <c r="D42" s="6">
-        <f>'[1]Data - V3'!D41</f>
         <v>7625439.460720052</v>
       </c>
       <c r="E42" s="5">
-        <f>'[1]Data - V3'!E41</f>
         <v>2265032</v>
       </c>
       <c r="F42" s="6">
-        <f>'[1]Data - V3'!F41</f>
         <v>2009918</v>
       </c>
       <c r="G42" s="7">
-        <f>'[1]Data - V3'!G41</f>
         <v>15488930841</v>
       </c>
     </row>
@@ -5517,23 +3333,18 @@
         <v>88</v>
       </c>
       <c r="C43" s="4">
-        <f>'[1]Data - V3'!C42</f>
         <v>1042956.1875</v>
       </c>
       <c r="D43" s="6">
-        <f>'[1]Data - V3'!D42</f>
         <v>642217.61108881235</v>
       </c>
       <c r="E43" s="5">
-        <f>'[1]Data - V3'!E42</f>
         <v>277071</v>
       </c>
       <c r="F43" s="6">
-        <f>'[1]Data - V3'!F42</f>
         <v>164357</v>
       </c>
       <c r="G43" s="7">
-        <f>'[1]Data - V3'!G42</f>
         <v>1638715462</v>
       </c>
     </row>
@@ -5545,23 +3356,18 @@
         <v>90</v>
       </c>
       <c r="C44" s="4">
-        <f>'[1]Data - V3'!C43</f>
         <v>4569375.5</v>
       </c>
       <c r="D44" s="6">
-        <f>'[1]Data - V3'!D43</f>
         <v>2297842.459383483</v>
       </c>
       <c r="E44" s="5">
-        <f>'[1]Data - V3'!E43</f>
         <v>904614</v>
       </c>
       <c r="F44" s="6">
-        <f>'[1]Data - V3'!F43</f>
         <v>743898</v>
       </c>
       <c r="G44" s="7">
-        <f>'[1]Data - V3'!G43</f>
         <v>3967951692</v>
       </c>
     </row>
@@ -5573,23 +3379,18 @@
         <v>92</v>
       </c>
       <c r="C45" s="4">
-        <f>'[1]Data - V3'!C44</f>
         <v>808996.875</v>
       </c>
       <c r="D45" s="6">
-        <f>'[1]Data - V3'!D44</f>
         <v>462029.7754564283</v>
       </c>
       <c r="E45" s="5">
-        <f>'[1]Data - V3'!E44</f>
         <v>106273</v>
       </c>
       <c r="F45" s="6">
-        <f>'[1]Data - V3'!F44</f>
         <v>105289</v>
       </c>
       <c r="G45" s="7">
-        <f>'[1]Data - V3'!G44</f>
         <v>590205305</v>
       </c>
     </row>
@@ -5601,23 +3402,18 @@
         <v>94</v>
       </c>
       <c r="C46" s="4">
-        <f>'[1]Data - V3'!C45</f>
         <v>6323933.5</v>
       </c>
       <c r="D46" s="6">
-        <f>'[1]Data - V3'!D45</f>
         <v>3215312.1324729919</v>
       </c>
       <c r="E46" s="5">
-        <f>'[1]Data - V3'!E45</f>
         <v>1436971</v>
       </c>
       <c r="F46" s="6">
-        <f>'[1]Data - V3'!F45</f>
         <v>1221298</v>
       </c>
       <c r="G46" s="7">
-        <f>'[1]Data - V3'!G45</f>
         <v>7709464957</v>
       </c>
     </row>
@@ -5629,23 +3425,18 @@
         <v>96</v>
       </c>
       <c r="C47" s="4">
-        <f>'[1]Data - V3'!C46</f>
         <v>25373166</v>
       </c>
       <c r="D47" s="6">
-        <f>'[1]Data - V3'!D46</f>
         <v>13106161.257021897</v>
       </c>
       <c r="E47" s="5">
-        <f>'[1]Data - V3'!E46</f>
         <v>4769534</v>
       </c>
       <c r="F47" s="6">
-        <f>'[1]Data - V3'!F46</f>
         <v>3743707</v>
       </c>
       <c r="G47" s="7">
-        <f>'[1]Data - V3'!G46</f>
         <v>23964201822</v>
       </c>
     </row>
@@ -5657,23 +3448,18 @@
         <v>98</v>
       </c>
       <c r="C48" s="4">
-        <f>'[1]Data - V3'!C47</f>
         <v>2821433.75</v>
       </c>
       <c r="D48" s="6">
-        <f>'[1]Data - V3'!D47</f>
         <v>1635295.925413609</v>
       </c>
       <c r="E48" s="5">
-        <f>'[1]Data - V3'!E47</f>
         <v>497356</v>
       </c>
       <c r="F48" s="6">
-        <f>'[1]Data - V3'!F47</f>
         <v>260186</v>
       </c>
       <c r="G48" s="7">
-        <f>'[1]Data - V3'!G47</f>
         <v>1574878075</v>
       </c>
     </row>
@@ -5685,23 +3471,18 @@
         <v>100</v>
       </c>
       <c r="C49" s="4">
-        <f>'[1]Data - V3'!C48</f>
         <v>619353.375</v>
       </c>
       <c r="D49" s="6">
-        <f>'[1]Data - V3'!D48</f>
         <v>395740.63415384281</v>
       </c>
       <c r="E49" s="5">
-        <f>'[1]Data - V3'!E48</f>
         <v>182296</v>
       </c>
       <c r="F49" s="6">
-        <f>'[1]Data - V3'!F48</f>
         <v>132449</v>
       </c>
       <c r="G49" s="7">
-        <f>'[1]Data - V3'!G48</f>
         <v>1147391394</v>
       </c>
     </row>
@@ -5713,23 +3494,18 @@
         <v>102</v>
       </c>
       <c r="C50" s="4">
-        <f>'[1]Data - V3'!C49</f>
         <v>7873385.5</v>
       </c>
       <c r="D50" s="6">
-        <f>'[1]Data - V3'!D49</f>
         <v>5164473.982846735</v>
       </c>
       <c r="E50" s="5">
-        <f>'[1]Data - V3'!E49</f>
         <v>982150</v>
       </c>
       <c r="F50" s="6">
-        <f>'[1]Data - V3'!F49</f>
         <v>852387</v>
       </c>
       <c r="G50" s="7">
-        <f>'[1]Data - V3'!G49</f>
         <v>5577544559</v>
       </c>
     </row>
@@ -5741,23 +3517,18 @@
         <v>104</v>
       </c>
       <c r="C51" s="4">
-        <f>'[1]Data - V3'!C50</f>
         <v>6770326</v>
       </c>
       <c r="D51" s="6">
-        <f>'[1]Data - V3'!D50</f>
         <v>4078566.369532112</v>
       </c>
       <c r="E51" s="5">
-        <f>'[1]Data - V3'!E50</f>
         <v>1442682</v>
       </c>
       <c r="F51" s="6">
-        <f>'[1]Data - V3'!F50</f>
         <v>992662</v>
       </c>
       <c r="G51" s="7">
-        <f>'[1]Data - V3'!G50</f>
         <v>6236556001</v>
       </c>
     </row>
@@ -5769,23 +3540,18 @@
         <v>106</v>
       </c>
       <c r="C52" s="4">
-        <f>'[1]Data - V3'!C51</f>
         <v>1816362</v>
       </c>
       <c r="D52" s="6">
-        <f>'[1]Data - V3'!D51</f>
         <v>963587.93747329677</v>
       </c>
       <c r="E52" s="5">
-        <f>'[1]Data - V3'!E51</f>
         <v>508769</v>
       </c>
       <c r="F52" s="6">
-        <f>'[1]Data - V3'!F51</f>
         <v>319608</v>
       </c>
       <c r="G52" s="7">
-        <f>'[1]Data - V3'!G51</f>
         <v>2201657700</v>
       </c>
     </row>
@@ -5797,23 +3563,18 @@
         <v>108</v>
       </c>
       <c r="C53" s="4">
-        <f>'[1]Data - V3'!C52</f>
         <v>5648114</v>
       </c>
       <c r="D53" s="6">
-        <f>'[1]Data - V3'!D52</f>
         <v>3536887.977611063</v>
       </c>
       <c r="E53" s="5">
-        <f>'[1]Data - V3'!E52</f>
         <v>1099381</v>
       </c>
       <c r="F53" s="6">
-        <f>'[1]Data - V3'!F52</f>
         <v>1012757</v>
       </c>
       <c r="G53" s="7">
-        <f>'[1]Data - V3'!G52</f>
         <v>5775541790</v>
       </c>
     </row>
@@ -5825,23 +3586,18 @@
         <v>110</v>
       </c>
       <c r="C54" s="4">
-        <f>'[1]Data - V3'!C53</f>
         <v>549871.625</v>
       </c>
       <c r="D54" s="6">
-        <f>'[1]Data - V3'!D53</f>
         <v>338841.74967312842</v>
       </c>
       <c r="E54" s="5">
-        <f>'[1]Data - V3'!E53</f>
         <v>62953</v>
       </c>
       <c r="F54" s="6">
-        <f>'[1]Data - V3'!F53</f>
         <v>66306</v>
       </c>
       <c r="G54" s="7">
-        <f>'[1]Data - V3'!G53</f>
         <v>444329281</v>
       </c>
     </row>
@@ -5947,18 +3703,36 @@
       <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A55:G66"/>
+    <mergeCell ref="A55:G68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
